--- a/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>CRH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,195 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9424100</v>
+        <v>13193700</v>
       </c>
       <c r="E8" s="3">
-        <v>14512300</v>
+        <v>9506500</v>
       </c>
       <c r="F8" s="3">
-        <v>16300900</v>
+        <v>14639100</v>
       </c>
       <c r="G8" s="3">
-        <v>13114500</v>
+        <v>12512600</v>
       </c>
       <c r="H8" s="3">
-        <v>27691600</v>
+        <v>13229200</v>
       </c>
       <c r="I8" s="3">
-        <v>13011300</v>
+        <v>10857800</v>
       </c>
       <c r="J8" s="3">
+        <v>13125100</v>
+      </c>
+      <c r="K8" s="3">
         <v>27218300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14241400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16005200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10998600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12428300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9955600</v>
+      <c r="D9" s="3">
+        <v>8616000</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>10848200</v>
+        <v>10042600</v>
       </c>
       <c r="G9" s="3">
-        <v>9043100</v>
+        <v>19068400</v>
       </c>
       <c r="H9" s="3">
-        <v>18559500</v>
+        <v>9122200</v>
       </c>
       <c r="I9" s="3">
-        <v>8882800</v>
+        <v>6850500</v>
       </c>
       <c r="J9" s="3">
+        <v>8960500</v>
+      </c>
+      <c r="K9" s="3">
         <v>18189500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9780400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10894500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7845700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8641600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4556700</v>
+      <c r="D10" s="3">
+        <v>4577700</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>5452700</v>
+        <v>4596500</v>
       </c>
       <c r="G10" s="3">
-        <v>4071400</v>
+        <v>-6555900</v>
       </c>
       <c r="H10" s="3">
-        <v>9132100</v>
+        <v>4107000</v>
       </c>
       <c r="I10" s="3">
-        <v>4128500</v>
+        <v>4007300</v>
       </c>
       <c r="J10" s="3">
+        <v>4164600</v>
+      </c>
+      <c r="K10" s="3">
         <v>9028900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4461000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5110700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3152900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,32 +948,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
-        <v>48300</v>
-      </c>
       <c r="G14" s="3">
-        <v>13200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+        <v>48700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>5500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
@@ -970,8 +989,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3">
-        <v>13687700</v>
+      <c r="D17" s="3">
+        <v>11263200</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F17" s="3">
-        <v>14560600</v>
+        <v>13807300</v>
       </c>
       <c r="G17" s="3">
-        <v>12464500</v>
+        <v>10874400</v>
       </c>
       <c r="H17" s="3">
-        <v>25391300</v>
+        <v>12573500</v>
       </c>
       <c r="I17" s="3">
-        <v>12344800</v>
+        <v>9395800</v>
       </c>
       <c r="J17" s="3">
+        <v>12452700</v>
+      </c>
+      <c r="K17" s="3">
         <v>25123300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13581700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14784500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10776700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11552600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
-        <v>824600</v>
+      <c r="D18" s="3">
+        <v>1930500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>1740300</v>
+        <v>831800</v>
       </c>
       <c r="G18" s="3">
-        <v>650000</v>
+        <v>1638100</v>
       </c>
       <c r="H18" s="3">
-        <v>2300300</v>
+        <v>655700</v>
       </c>
       <c r="I18" s="3">
-        <v>666500</v>
+        <v>1462000</v>
       </c>
       <c r="J18" s="3">
+        <v>672300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2095000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>659700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1220700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>221900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>875700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,84 +1145,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-48300</v>
+      <c r="D20" s="3">
+        <v>-371000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="3">
-        <v>-241600</v>
+        <v>-48700</v>
       </c>
       <c r="G20" s="3">
-        <v>-104300</v>
+        <v>-260300</v>
       </c>
       <c r="H20" s="3">
-        <v>-250300</v>
+        <v>-105200</v>
       </c>
       <c r="I20" s="3">
-        <v>-144900</v>
+        <v>-121800</v>
       </c>
       <c r="J20" s="3">
+        <v>-146200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-316200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-203100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-132400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-147900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1642600</v>
+      <c r="D21" s="3">
+        <v>2454400</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>2172900</v>
+        <v>1657000</v>
       </c>
       <c r="G21" s="3">
-        <v>1114500</v>
+        <v>2057900</v>
       </c>
       <c r="H21" s="3">
-        <v>3227000</v>
+        <v>1124200</v>
       </c>
       <c r="I21" s="3">
-        <v>1101300</v>
+        <v>1942700</v>
       </c>
       <c r="J21" s="3">
+        <v>1110900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2964600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1053500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1685200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>503600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1221900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1227,84 +1266,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3">
-        <v>776300</v>
+      <c r="D23" s="3">
+        <v>1559500</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F23" s="3">
-        <v>1498800</v>
+        <v>783100</v>
       </c>
       <c r="G23" s="3">
-        <v>545700</v>
+        <v>1377900</v>
       </c>
       <c r="H23" s="3">
-        <v>2050000</v>
+        <v>550500</v>
       </c>
       <c r="I23" s="3">
-        <v>521600</v>
+        <v>1340200</v>
       </c>
       <c r="J23" s="3">
+        <v>526100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1778800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>456600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1088300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>74000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3">
-        <v>166900</v>
+      <c r="D24" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F24" s="3">
-        <v>337100</v>
+        <v>168400</v>
       </c>
       <c r="G24" s="3">
-        <v>130700</v>
+        <v>306800</v>
       </c>
       <c r="H24" s="3">
-        <v>543500</v>
+        <v>131800</v>
       </c>
       <c r="I24" s="3">
-        <v>141600</v>
+        <v>-129600</v>
       </c>
       <c r="J24" s="3">
+        <v>142900</v>
+      </c>
+      <c r="K24" s="3">
         <v>473200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>127900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>323100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>190200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3">
-        <v>609400</v>
+      <c r="D26" s="3">
+        <v>1199500</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F26" s="3">
-        <v>1161700</v>
+        <v>614700</v>
       </c>
       <c r="G26" s="3">
-        <v>415000</v>
+        <v>1071000</v>
       </c>
       <c r="H26" s="3">
-        <v>1506500</v>
+        <v>418700</v>
       </c>
       <c r="I26" s="3">
-        <v>379900</v>
+        <v>1469800</v>
       </c>
       <c r="J26" s="3">
+        <v>383200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1305500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>328700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>765200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>55200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3">
-        <v>601700</v>
+      <c r="D27" s="3">
+        <v>1187300</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F27" s="3">
-        <v>1157300</v>
+        <v>607000</v>
       </c>
       <c r="G27" s="3">
-        <v>415000</v>
+        <v>1067700</v>
       </c>
       <c r="H27" s="3">
-        <v>1480100</v>
+        <v>418700</v>
       </c>
       <c r="I27" s="3">
-        <v>370000</v>
+        <v>1454300</v>
       </c>
       <c r="J27" s="3">
+        <v>373300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1275900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>313000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>760700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>54000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,35 +1512,38 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>341100</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>1189100</v>
+        <v>103000</v>
       </c>
       <c r="H29" s="3">
-        <v>600600</v>
+        <v>1199500</v>
       </c>
       <c r="I29" s="3">
-        <v>28500</v>
+        <v>847300</v>
       </c>
       <c r="J29" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K29" s="3">
         <v>88900</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1493,8 +1553,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1635,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>48300</v>
+      <c r="D32" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="3">
-        <v>241600</v>
+        <v>48700</v>
       </c>
       <c r="G32" s="3">
-        <v>104300</v>
+        <v>260300</v>
       </c>
       <c r="H32" s="3">
-        <v>250300</v>
+        <v>105200</v>
       </c>
       <c r="I32" s="3">
-        <v>144900</v>
+        <v>121800</v>
       </c>
       <c r="J32" s="3">
+        <v>146200</v>
+      </c>
+      <c r="K32" s="3">
         <v>316200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>203100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>132400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>147900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3">
-        <v>601700</v>
+      <c r="D33" s="3">
+        <v>1528500</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F33" s="3">
-        <v>1159500</v>
+        <v>607000</v>
       </c>
       <c r="G33" s="3">
-        <v>1604200</v>
+        <v>1170700</v>
       </c>
       <c r="H33" s="3">
-        <v>2080700</v>
+        <v>1618200</v>
       </c>
       <c r="I33" s="3">
-        <v>398600</v>
+        <v>2301600</v>
       </c>
       <c r="J33" s="3">
+        <v>402100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1364800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>313000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>760700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>54000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3">
-        <v>601700</v>
+      <c r="D35" s="3">
+        <v>1528500</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F35" s="3">
-        <v>1159500</v>
+        <v>607000</v>
       </c>
       <c r="G35" s="3">
-        <v>1604200</v>
+        <v>1170700</v>
       </c>
       <c r="H35" s="3">
-        <v>2080700</v>
+        <v>1618200</v>
       </c>
       <c r="I35" s="3">
-        <v>398600</v>
+        <v>2301600</v>
       </c>
       <c r="J35" s="3">
+        <v>402100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1364800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>313000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>760700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>54000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1536100</v>
+      <c r="D41" s="3">
+        <v>4159000</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F41" s="3">
-        <v>2575900</v>
+        <v>1549500</v>
       </c>
       <c r="G41" s="3">
-        <v>2029100</v>
+        <v>2598400</v>
       </c>
       <c r="H41" s="3">
-        <v>2322300</v>
+        <v>2046800</v>
       </c>
       <c r="I41" s="3">
-        <v>2119100</v>
+        <v>2342600</v>
       </c>
       <c r="J41" s="3">
+        <v>2137700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2689000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1564100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2825200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6149600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3829000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1872,274 +1961,298 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5796300</v>
+      <c r="D43" s="3">
+        <v>4194500</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F43" s="3">
-        <v>4489700</v>
+        <v>5847000</v>
       </c>
       <c r="G43" s="3">
-        <v>5589900</v>
+        <v>4529000</v>
       </c>
       <c r="H43" s="3">
-        <v>4166900</v>
+        <v>5638800</v>
       </c>
       <c r="I43" s="3">
-        <v>5349500</v>
+        <v>4203300</v>
       </c>
       <c r="J43" s="3">
+        <v>5396200</v>
+      </c>
+      <c r="K43" s="3">
         <v>4373300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5548200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4467800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4211600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3121200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3544300</v>
+      <c r="D44" s="3">
+        <v>3037000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="3">
-        <v>3361000</v>
+        <v>3575300</v>
       </c>
       <c r="G44" s="3">
-        <v>3459800</v>
+        <v>3390400</v>
       </c>
       <c r="H44" s="3">
-        <v>2981100</v>
+        <v>3490000</v>
       </c>
       <c r="I44" s="3">
-        <v>3420300</v>
+        <v>3007100</v>
       </c>
       <c r="J44" s="3">
+        <v>3450200</v>
+      </c>
+      <c r="K44" s="3">
         <v>3227000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3362600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3223500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2978000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3">
-        <v>9900</v>
+      <c r="D45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="G45" s="3">
-        <v>34000</v>
+        <v>16600</v>
       </c>
       <c r="H45" s="3">
-        <v>1258300</v>
+        <v>34300</v>
       </c>
       <c r="I45" s="3">
-        <v>65900</v>
+        <v>1269300</v>
       </c>
       <c r="J45" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K45" s="3">
         <v>25300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>640900</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3">
-        <v>10886700</v>
+      <c r="D46" s="3">
+        <v>11397200</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F46" s="3">
-        <v>10443100</v>
+        <v>10981900</v>
       </c>
       <c r="G46" s="3">
-        <v>11112900</v>
+        <v>10534400</v>
       </c>
       <c r="H46" s="3">
-        <v>10728600</v>
+        <v>11210000</v>
       </c>
       <c r="I46" s="3">
-        <v>10954700</v>
+        <v>10822400</v>
       </c>
       <c r="J46" s="3">
+        <v>11050500</v>
+      </c>
+      <c r="K46" s="3">
         <v>10314600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10504100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10543300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13365000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10243800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1519600</v>
+      <c r="D47" s="3">
+        <v>1128600</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
-        <v>1501000</v>
+        <v>1532900</v>
       </c>
       <c r="G47" s="3">
-        <v>1426300</v>
+        <v>1514100</v>
       </c>
       <c r="H47" s="3">
-        <v>1569000</v>
+        <v>1438800</v>
       </c>
       <c r="I47" s="3">
-        <v>1627200</v>
+        <v>1582800</v>
       </c>
       <c r="J47" s="3">
+        <v>1641500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1687600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1688600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1676300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1814700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1686800</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3">
-        <v>19593800</v>
+      <c r="D48" s="3">
+        <v>19298800</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>17305600</v>
+        <v>19765100</v>
       </c>
       <c r="G48" s="3">
-        <v>17136500</v>
+        <v>17456900</v>
       </c>
       <c r="H48" s="3">
-        <v>14377200</v>
+        <v>17286300</v>
       </c>
       <c r="I48" s="3">
-        <v>13625100</v>
+        <v>14502900</v>
       </c>
       <c r="J48" s="3">
+        <v>13744200</v>
+      </c>
+      <c r="K48" s="3">
         <v>13933600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14146000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14655400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9181500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8712000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3">
-        <v>9360500</v>
+      <c r="D49" s="3">
+        <v>9341500</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
-        <v>9259400</v>
+        <v>9442300</v>
       </c>
       <c r="G49" s="3">
-        <v>9459300</v>
+        <v>9340400</v>
       </c>
       <c r="H49" s="3">
-        <v>7921000</v>
+        <v>9542000</v>
       </c>
       <c r="I49" s="3">
-        <v>8287700</v>
+        <v>7990200</v>
       </c>
       <c r="J49" s="3">
+        <v>8360200</v>
+      </c>
+      <c r="K49" s="3">
         <v>8521600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8629200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8774000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5177700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4898300</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2330,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3">
-        <v>160300</v>
+      <c r="D52" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
-        <v>110900</v>
+        <v>161700</v>
       </c>
       <c r="G52" s="3">
-        <v>125200</v>
+        <v>111900</v>
       </c>
       <c r="H52" s="3">
-        <v>137300</v>
+        <v>126300</v>
       </c>
       <c r="I52" s="3">
-        <v>198700</v>
+        <v>138500</v>
       </c>
       <c r="J52" s="3">
+        <v>200500</v>
+      </c>
+      <c r="K52" s="3">
         <v>232800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>362400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>262500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>253500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>302800</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3">
-        <v>41520900</v>
+      <c r="D54" s="3">
+        <v>41324600</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F54" s="3">
-        <v>38620000</v>
+        <v>41883900</v>
       </c>
       <c r="G54" s="3">
-        <v>39260100</v>
+        <v>38957600</v>
       </c>
       <c r="H54" s="3">
-        <v>34733000</v>
+        <v>39603300</v>
       </c>
       <c r="I54" s="3">
-        <v>34693500</v>
+        <v>35036700</v>
       </c>
       <c r="J54" s="3">
+        <v>34996800</v>
+      </c>
+      <c r="K54" s="3">
         <v>34690200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35330300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35911500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29792500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25843800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2489,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3">
-        <v>5570200</v>
+      <c r="D57" s="3">
+        <v>4846900</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F57" s="3">
-        <v>5060700</v>
+        <v>5618900</v>
       </c>
       <c r="G57" s="3">
-        <v>5660200</v>
+        <v>5104900</v>
       </c>
       <c r="H57" s="3">
-        <v>4978300</v>
+        <v>5709700</v>
       </c>
       <c r="I57" s="3">
-        <v>5490000</v>
+        <v>5021900</v>
       </c>
       <c r="J57" s="3">
+        <v>5538000</v>
+      </c>
+      <c r="K57" s="3">
         <v>5286900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5880300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5341800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4145900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3397000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1516300</v>
+      <c r="D58" s="3">
+        <v>1202900</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
-        <v>678600</v>
+        <v>1529600</v>
       </c>
       <c r="G58" s="3">
-        <v>1488900</v>
+        <v>684500</v>
       </c>
       <c r="H58" s="3">
-        <v>347000</v>
+        <v>1501900</v>
       </c>
       <c r="I58" s="3">
-        <v>459000</v>
+        <v>350000</v>
       </c>
       <c r="J58" s="3">
+        <v>463000</v>
+      </c>
+      <c r="K58" s="3">
         <v>302000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>720300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>848200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>412000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>524700</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3">
-        <v>969500</v>
+      <c r="D59" s="3">
+        <v>1016800</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F59" s="3">
-        <v>935500</v>
+        <v>978000</v>
       </c>
       <c r="G59" s="3">
-        <v>1080400</v>
+        <v>943700</v>
       </c>
       <c r="H59" s="3">
-        <v>1296700</v>
+        <v>1089900</v>
       </c>
       <c r="I59" s="3">
-        <v>890500</v>
+        <v>1308100</v>
       </c>
       <c r="J59" s="3">
+        <v>898300</v>
+      </c>
+      <c r="K59" s="3">
         <v>887200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>880800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>955900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>322800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>617400</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3">
-        <v>8056000</v>
+      <c r="D60" s="3">
+        <v>7066500</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F60" s="3">
-        <v>6674700</v>
+        <v>8126500</v>
       </c>
       <c r="G60" s="3">
-        <v>8229500</v>
+        <v>6733100</v>
       </c>
       <c r="H60" s="3">
-        <v>6622000</v>
+        <v>8301500</v>
       </c>
       <c r="I60" s="3">
-        <v>6839400</v>
+        <v>6679900</v>
       </c>
       <c r="J60" s="3">
+        <v>6899200</v>
+      </c>
+      <c r="K60" s="3">
         <v>6476000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7481400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7146000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4880700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4539100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>10454600</v>
       </c>
       <c r="E61" s="3">
-        <v>11318200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>9550400</v>
+        <v>11417100</v>
       </c>
       <c r="G61" s="3">
-        <v>9395600</v>
+        <v>9633900</v>
       </c>
       <c r="H61" s="3">
-        <v>8410700</v>
+        <v>9477700</v>
       </c>
       <c r="I61" s="3">
-        <v>8762000</v>
+        <v>8484200</v>
       </c>
       <c r="J61" s="3">
+        <v>8838600</v>
+      </c>
+      <c r="K61" s="3">
         <v>8251500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8908600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9497600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7241200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6360900</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4383200</v>
+      <c r="D62" s="3">
+        <v>4442600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
-        <v>4218500</v>
+        <v>4421500</v>
       </c>
       <c r="G62" s="3">
-        <v>4098800</v>
+        <v>4255400</v>
       </c>
       <c r="H62" s="3">
-        <v>3255600</v>
+        <v>4134700</v>
       </c>
       <c r="I62" s="3">
-        <v>3812300</v>
+        <v>3284000</v>
       </c>
       <c r="J62" s="3">
+        <v>3845600</v>
+      </c>
+      <c r="K62" s="3">
         <v>4104300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4229900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4071700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2946300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2973300</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="3">
-        <v>24354700</v>
+      <c r="D66" s="3">
+        <v>22561800</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F66" s="3">
-        <v>21020100</v>
+        <v>24567700</v>
       </c>
       <c r="G66" s="3">
-        <v>22266300</v>
+        <v>21203900</v>
       </c>
       <c r="H66" s="3">
-        <v>18821900</v>
+        <v>22461000</v>
       </c>
       <c r="I66" s="3">
-        <v>19969300</v>
+        <v>18986500</v>
       </c>
       <c r="J66" s="3">
+        <v>20143900</v>
+      </c>
+      <c r="K66" s="3">
         <v>19433500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21220200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21308800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15094000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13897900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,16 +2996,19 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E70" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>1100</v>
@@ -2865,13 +3032,16 @@
         <v>1100</v>
       </c>
       <c r="M70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N70" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3">
-        <v>10970100</v>
+      <c r="D72" s="3">
+        <v>11350700</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>11098600</v>
+        <v>11066000</v>
       </c>
       <c r="G72" s="3">
-        <v>10020300</v>
+        <v>11195600</v>
       </c>
       <c r="H72" s="3">
-        <v>8990400</v>
+        <v>10108000</v>
       </c>
       <c r="I72" s="3">
-        <v>7434600</v>
+        <v>9069000</v>
       </c>
       <c r="J72" s="3">
+        <v>7499600</v>
+      </c>
+      <c r="K72" s="3">
         <v>7420300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6436900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6776800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6156600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6344400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3">
-        <v>17165000</v>
+      <c r="D76" s="3">
+        <v>18761600</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F76" s="3">
-        <v>17598700</v>
+        <v>17315100</v>
       </c>
       <c r="G76" s="3">
-        <v>16992600</v>
+        <v>17752600</v>
       </c>
       <c r="H76" s="3">
-        <v>15910000</v>
+        <v>17141200</v>
       </c>
       <c r="I76" s="3">
-        <v>14723100</v>
+        <v>16049100</v>
       </c>
       <c r="J76" s="3">
+        <v>14851800</v>
+      </c>
+      <c r="K76" s="3">
         <v>15255600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14109000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14601600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14697300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11944700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3">
-        <v>601700</v>
+      <c r="D81" s="3">
+        <v>1528500</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F81" s="3">
-        <v>1159500</v>
+        <v>607000</v>
       </c>
       <c r="G81" s="3">
-        <v>1604200</v>
+        <v>1170700</v>
       </c>
       <c r="H81" s="3">
-        <v>2080700</v>
+        <v>1618200</v>
       </c>
       <c r="I81" s="3">
-        <v>398600</v>
+        <v>2301600</v>
       </c>
       <c r="J81" s="3">
+        <v>402100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1364800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>313000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>760700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>54000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,46 +3430,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3">
-        <v>866300</v>
+      <c r="D83" s="3">
+        <v>894900</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F83" s="3">
-        <v>674200</v>
+        <v>873900</v>
       </c>
       <c r="G83" s="3">
-        <v>568800</v>
+        <v>680100</v>
       </c>
       <c r="H83" s="3">
-        <v>1177100</v>
+        <v>573700</v>
       </c>
       <c r="I83" s="3">
-        <v>579700</v>
+        <v>602500</v>
       </c>
       <c r="J83" s="3">
+        <v>584800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1185800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>596900</v>
       </c>
       <c r="L83" s="3">
         <v>596900</v>
       </c>
       <c r="M83" s="3">
+        <v>596900</v>
+      </c>
+      <c r="N83" s="3">
         <v>429600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>400300</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3">
-        <v>296500</v>
+      <c r="D89" s="3">
+        <v>3539900</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F89" s="3">
-        <v>2426600</v>
+        <v>299100</v>
       </c>
       <c r="G89" s="3">
-        <v>-341500</v>
+        <v>2447800</v>
       </c>
       <c r="H89" s="3">
-        <v>2403500</v>
+        <v>-344500</v>
       </c>
       <c r="I89" s="3">
-        <v>-53800</v>
+        <v>2478800</v>
       </c>
       <c r="J89" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2569300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>77400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2822900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-315800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1747800</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3734,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-697200</v>
+      <c r="D91" s="3">
+        <v>-657900</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
-        <v>-672000</v>
+        <v>-703300</v>
       </c>
       <c r="G91" s="3">
-        <v>-558900</v>
+        <v>-677900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1146300</v>
+        <v>-563800</v>
       </c>
       <c r="I91" s="3">
-        <v>-563300</v>
+        <v>-588100</v>
       </c>
       <c r="J91" s="3">
+        <v>-568200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-936600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-457800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-610400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-396700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-260600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3855,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-621500</v>
+      <c r="D94" s="3">
+        <v>842900</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
-        <v>-297600</v>
+        <v>-626900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1450500</v>
+        <v>-300200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2948100</v>
+        <v>-1463100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1076000</v>
+        <v>-1888500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1085400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-807000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-445400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8485600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>301700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,46 +3915,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-176100</v>
       </c>
       <c r="E96" s="3">
-        <v>-466700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-179000</v>
+        <v>-470700</v>
       </c>
       <c r="G96" s="3">
-        <v>-393100</v>
+        <v>-180500</v>
       </c>
       <c r="H96" s="3">
-        <v>-515000</v>
+        <v>-396500</v>
       </c>
       <c r="I96" s="3">
-        <v>-408500</v>
+        <v>-107400</v>
       </c>
       <c r="J96" s="3">
+        <v>-412000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-386500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-260300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-161600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-275800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-135000</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4077,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-721400</v>
+      <c r="D100" s="3">
+        <v>-1796500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
-        <v>-1592100</v>
+        <v>-727700</v>
       </c>
       <c r="G100" s="3">
-        <v>1468000</v>
+        <v>-1606000</v>
       </c>
       <c r="H100" s="3">
-        <v>376600</v>
+        <v>1480900</v>
       </c>
       <c r="I100" s="3">
-        <v>662100</v>
+        <v>-288000</v>
       </c>
       <c r="J100" s="3">
+        <v>667900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1901700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-859400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2637800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2125800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>610400</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="D101" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3">
         <v>6600</v>
       </c>
-      <c r="F101" s="3">
-        <v>9900</v>
-      </c>
       <c r="G101" s="3">
-        <v>8800</v>
+        <v>10000</v>
       </c>
       <c r="H101" s="3">
-        <v>-176800</v>
+        <v>8900</v>
       </c>
       <c r="I101" s="3">
-        <v>-102100</v>
+        <v>-75300</v>
       </c>
       <c r="J101" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="K101" s="3">
         <v>63700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-33700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-28000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>170200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-1039800</v>
+      <c r="D102" s="3">
+        <v>2609500</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>546800</v>
+        <v>-1048900</v>
       </c>
       <c r="G102" s="3">
-        <v>-315100</v>
+        <v>551600</v>
       </c>
       <c r="H102" s="3">
-        <v>-344800</v>
+        <v>-317900</v>
       </c>
       <c r="I102" s="3">
-        <v>-569900</v>
+        <v>227100</v>
       </c>
       <c r="J102" s="3">
+        <v>-574800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-75800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1261100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3052900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2281900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2522500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>CRH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13193700</v>
+        <v>14449100</v>
       </c>
       <c r="E8" s="3">
-        <v>9506500</v>
+        <v>18080600</v>
       </c>
       <c r="F8" s="3">
-        <v>14639100</v>
+        <v>10152800</v>
       </c>
       <c r="G8" s="3">
-        <v>12512600</v>
+        <v>15196700</v>
       </c>
       <c r="H8" s="3">
-        <v>13229200</v>
+        <v>13363200</v>
       </c>
       <c r="I8" s="3">
-        <v>10857800</v>
+        <v>14128600</v>
       </c>
       <c r="J8" s="3">
+        <v>11596000</v>
+      </c>
+      <c r="K8" s="3">
         <v>13125100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27218300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14241400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16005200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10998600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12428300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8616000</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10042600</v>
+        <v>9895000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11982800</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G9" s="3">
-        <v>19068400</v>
+        <v>10325500</v>
       </c>
       <c r="H9" s="3">
-        <v>9122200</v>
+        <v>20364800</v>
       </c>
       <c r="I9" s="3">
-        <v>6850500</v>
+        <v>9742400</v>
       </c>
       <c r="J9" s="3">
+        <v>7316200</v>
+      </c>
+      <c r="K9" s="3">
         <v>8960500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18189500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9780400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10894500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7845700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8641600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4577700</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4596500</v>
+        <v>4554200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6097800</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G10" s="3">
-        <v>-6555900</v>
+        <v>4871200</v>
       </c>
       <c r="H10" s="3">
-        <v>4107000</v>
+        <v>-7001600</v>
       </c>
       <c r="I10" s="3">
-        <v>4007300</v>
+        <v>4386200</v>
       </c>
       <c r="J10" s="3">
+        <v>4279700</v>
+      </c>
+      <c r="K10" s="3">
         <v>4164600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9028900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4461000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5110700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3152900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,35 +968,38 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>1200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>1100</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>48700</v>
+        <v>2400</v>
       </c>
       <c r="H14" s="3">
-        <v>13300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+        <v>52000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>14200</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>5500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1012,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11263200</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>13807300</v>
+        <v>13534700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16138300</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G17" s="3">
-        <v>10874400</v>
+        <v>14058800</v>
       </c>
       <c r="H17" s="3">
-        <v>12573500</v>
+        <v>11613700</v>
       </c>
       <c r="I17" s="3">
-        <v>9395800</v>
+        <v>13428300</v>
       </c>
       <c r="J17" s="3">
+        <v>10034500</v>
+      </c>
+      <c r="K17" s="3">
         <v>12452700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25123300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13581700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14784500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10776700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11552600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1930500</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>831800</v>
+        <v>914400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1942300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G18" s="3">
-        <v>1638100</v>
+        <v>1137900</v>
       </c>
       <c r="H18" s="3">
-        <v>655700</v>
+        <v>1749500</v>
       </c>
       <c r="I18" s="3">
-        <v>1462000</v>
+        <v>700300</v>
       </c>
       <c r="J18" s="3">
+        <v>1561400</v>
+      </c>
+      <c r="K18" s="3">
         <v>672300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2095000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>659700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1220700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>221900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>875700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,90 +1179,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-371000</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-48700</v>
+        <v>-301600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-210600</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G20" s="3">
-        <v>-260300</v>
+        <v>-289800</v>
       </c>
       <c r="H20" s="3">
-        <v>-105200</v>
+        <v>-278000</v>
       </c>
       <c r="I20" s="3">
-        <v>-121800</v>
+        <v>-112400</v>
       </c>
       <c r="J20" s="3">
+        <v>-130100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-146200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-316200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-203100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-132400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-147900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2454400</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1657000</v>
+        <v>1589800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2790500</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G21" s="3">
-        <v>2057900</v>
+        <v>1903300</v>
       </c>
       <c r="H21" s="3">
-        <v>1124200</v>
+        <v>2197800</v>
       </c>
       <c r="I21" s="3">
-        <v>1942700</v>
+        <v>1200600</v>
       </c>
       <c r="J21" s="3">
+        <v>2074800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1110900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2964600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1053500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1685200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>503600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1221900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,90 +1309,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1559500</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>783100</v>
+        <v>612700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1731800</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G23" s="3">
-        <v>1377900</v>
+        <v>848100</v>
       </c>
       <c r="H23" s="3">
-        <v>550500</v>
+        <v>1471500</v>
       </c>
       <c r="I23" s="3">
-        <v>1340200</v>
+        <v>587900</v>
       </c>
       <c r="J23" s="3">
+        <v>1431300</v>
+      </c>
+      <c r="K23" s="3">
         <v>526100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1778800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>456600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1088300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>360000</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
-        <v>168400</v>
+        <v>132500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>443600</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G24" s="3">
-        <v>306800</v>
+        <v>188100</v>
       </c>
       <c r="H24" s="3">
-        <v>131800</v>
+        <v>327700</v>
       </c>
       <c r="I24" s="3">
-        <v>-129600</v>
+        <v>140800</v>
       </c>
       <c r="J24" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="K24" s="3">
         <v>142900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>473200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>127900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>323100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>190200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1199500</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3">
-        <v>614700</v>
+        <v>480300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1288200</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G26" s="3">
-        <v>1071000</v>
+        <v>660100</v>
       </c>
       <c r="H26" s="3">
-        <v>418700</v>
+        <v>1143900</v>
       </c>
       <c r="I26" s="3">
-        <v>1469800</v>
+        <v>447100</v>
       </c>
       <c r="J26" s="3">
+        <v>1569700</v>
+      </c>
+      <c r="K26" s="3">
         <v>383200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1305500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>328700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>765200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>55200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1187300</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="3">
-        <v>607000</v>
+        <v>476700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1272800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G27" s="3">
-        <v>1067700</v>
+        <v>651800</v>
       </c>
       <c r="H27" s="3">
-        <v>418700</v>
+        <v>1140300</v>
       </c>
       <c r="I27" s="3">
-        <v>1454300</v>
+        <v>447100</v>
       </c>
       <c r="J27" s="3">
+        <v>1553100</v>
+      </c>
+      <c r="K27" s="3">
         <v>373300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1275900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>313000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>760700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>54000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,38 +1573,41 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>341100</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>55600</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>103000</v>
+        <v>49700</v>
       </c>
       <c r="H29" s="3">
-        <v>1199500</v>
+        <v>110000</v>
       </c>
       <c r="I29" s="3">
-        <v>847300</v>
+        <v>1281100</v>
       </c>
       <c r="J29" s="3">
+        <v>904900</v>
+      </c>
+      <c r="K29" s="3">
         <v>28800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>88900</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1556,8 +1617,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,90 +1705,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>371000</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3">
-        <v>48700</v>
+        <v>301600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>210600</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G32" s="3">
-        <v>260300</v>
+        <v>289800</v>
       </c>
       <c r="H32" s="3">
-        <v>105200</v>
+        <v>278000</v>
       </c>
       <c r="I32" s="3">
-        <v>121800</v>
+        <v>112400</v>
       </c>
       <c r="J32" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K32" s="3">
         <v>146200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>316200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>203100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>132400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>147900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1528500</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3">
-        <v>607000</v>
+        <v>476700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1328400</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>1170700</v>
+        <v>701500</v>
       </c>
       <c r="H33" s="3">
-        <v>1618200</v>
+        <v>1250300</v>
       </c>
       <c r="I33" s="3">
-        <v>2301600</v>
+        <v>1728200</v>
       </c>
       <c r="J33" s="3">
+        <v>2458100</v>
+      </c>
+      <c r="K33" s="3">
         <v>402100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1364800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>313000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>760700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>54000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1528500</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3">
-        <v>607000</v>
+        <v>476700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1328400</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G35" s="3">
-        <v>1170700</v>
+        <v>701500</v>
       </c>
       <c r="H35" s="3">
-        <v>1618200</v>
+        <v>1250300</v>
       </c>
       <c r="I35" s="3">
-        <v>2301600</v>
+        <v>1728200</v>
       </c>
       <c r="J35" s="3">
+        <v>2458100</v>
+      </c>
+      <c r="K35" s="3">
         <v>402100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1364800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>313000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>760700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>54000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +1968,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4159000</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1549500</v>
+        <v>11933100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4989500</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G41" s="3">
-        <v>2598400</v>
+        <v>1883200</v>
       </c>
       <c r="H41" s="3">
-        <v>2046800</v>
+        <v>2775100</v>
       </c>
       <c r="I41" s="3">
-        <v>2342600</v>
+        <v>2186000</v>
       </c>
       <c r="J41" s="3">
+        <v>2501800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2137700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2689000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1564100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2825200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6149600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3829000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,295 +2054,319 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4194500</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5847000</v>
+        <v>5850600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5030900</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G43" s="3">
-        <v>4529000</v>
+        <v>7106900</v>
       </c>
       <c r="H43" s="3">
-        <v>5638800</v>
+        <v>4836900</v>
       </c>
       <c r="I43" s="3">
-        <v>4203300</v>
+        <v>6022100</v>
       </c>
       <c r="J43" s="3">
+        <v>4489100</v>
+      </c>
+      <c r="K43" s="3">
         <v>5396200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4373300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5548200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4467800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4211600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3121200</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3037000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3575300</v>
+        <v>3477700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3643300</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G44" s="3">
-        <v>3390400</v>
+        <v>4344800</v>
       </c>
       <c r="H44" s="3">
-        <v>3490000</v>
+        <v>3620900</v>
       </c>
       <c r="I44" s="3">
-        <v>3007100</v>
+        <v>3727300</v>
       </c>
       <c r="J44" s="3">
+        <v>3211600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3450200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3227000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3362600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3223500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2978000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6600</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3">
-        <v>10000</v>
+        <v>31900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>16600</v>
+        <v>11800</v>
       </c>
       <c r="H45" s="3">
-        <v>34300</v>
+        <v>17700</v>
       </c>
       <c r="I45" s="3">
-        <v>1269300</v>
+        <v>36700</v>
       </c>
       <c r="J45" s="3">
+        <v>1355600</v>
+      </c>
+      <c r="K45" s="3">
         <v>66500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>640900</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11397200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3">
-        <v>10981900</v>
+        <v>21293400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13672000</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G46" s="3">
-        <v>10534400</v>
+        <v>13346700</v>
       </c>
       <c r="H46" s="3">
-        <v>11210000</v>
+        <v>11250600</v>
       </c>
       <c r="I46" s="3">
-        <v>10822400</v>
+        <v>11972100</v>
       </c>
       <c r="J46" s="3">
+        <v>11558100</v>
+      </c>
+      <c r="K46" s="3">
         <v>11050500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10314600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10504100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10543300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13365000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10243800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1128600</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1532900</v>
+        <v>1240900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1353200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>1514100</v>
+        <v>1863100</v>
       </c>
       <c r="H47" s="3">
-        <v>1438800</v>
+        <v>1617000</v>
       </c>
       <c r="I47" s="3">
-        <v>1582800</v>
+        <v>1536600</v>
       </c>
       <c r="J47" s="3">
+        <v>1690400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1641500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1687600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1688600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1676300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1814700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1686800</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19298800</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3">
-        <v>19765100</v>
+        <v>22592200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>23154100</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>17456900</v>
+        <v>45131200</v>
       </c>
       <c r="H48" s="3">
-        <v>17286300</v>
+        <v>18643700</v>
       </c>
       <c r="I48" s="3">
-        <v>14502900</v>
+        <v>18461500</v>
       </c>
       <c r="J48" s="3">
+        <v>15488900</v>
+      </c>
+      <c r="K48" s="3">
         <v>13744200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13933600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14146000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14655400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9181500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8712000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9341500</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
-        <v>9442300</v>
+        <v>11093200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11208000</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>9340400</v>
+        <v>11476500</v>
       </c>
       <c r="H49" s="3">
-        <v>9542000</v>
+        <v>9975400</v>
       </c>
       <c r="I49" s="3">
-        <v>7990200</v>
+        <v>10190700</v>
       </c>
       <c r="J49" s="3">
+        <v>8533400</v>
+      </c>
+      <c r="K49" s="3">
         <v>8360200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8521600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8629200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8774000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5177700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4898300</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,49 +2450,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>158400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
-        <v>161700</v>
+        <v>325300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>190400</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>111900</v>
+        <v>196400</v>
       </c>
       <c r="H52" s="3">
-        <v>126300</v>
+        <v>119500</v>
       </c>
       <c r="I52" s="3">
-        <v>138500</v>
+        <v>134900</v>
       </c>
       <c r="J52" s="3">
+        <v>147900</v>
+      </c>
+      <c r="K52" s="3">
         <v>200500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>232800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>362400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>262500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>253500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>302800</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41324600</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="3">
-        <v>41883900</v>
+        <v>56545000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>49577700</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G54" s="3">
-        <v>38957600</v>
+        <v>50904900</v>
       </c>
       <c r="H54" s="3">
-        <v>39603300</v>
+        <v>41606100</v>
       </c>
       <c r="I54" s="3">
-        <v>35036700</v>
+        <v>42295800</v>
       </c>
       <c r="J54" s="3">
+        <v>37418700</v>
+      </c>
+      <c r="K54" s="3">
         <v>34996800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34690200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35330300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35911500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29792500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25843800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,254 +2620,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4846900</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5618900</v>
+        <v>5951200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5815100</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G57" s="3">
-        <v>5104900</v>
+        <v>6828900</v>
       </c>
       <c r="H57" s="3">
-        <v>5709700</v>
+        <v>5452000</v>
       </c>
       <c r="I57" s="3">
-        <v>5021900</v>
+        <v>6097800</v>
       </c>
       <c r="J57" s="3">
+        <v>5363300</v>
+      </c>
+      <c r="K57" s="3">
         <v>5538000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5286900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5880300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5341800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4145900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3397000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1202900</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1529600</v>
+        <v>1906800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1443100</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>684500</v>
+        <v>1858300</v>
       </c>
       <c r="H58" s="3">
-        <v>1501900</v>
+        <v>731000</v>
       </c>
       <c r="I58" s="3">
-        <v>350000</v>
+        <v>1604000</v>
       </c>
       <c r="J58" s="3">
+        <v>373800</v>
+      </c>
+      <c r="K58" s="3">
         <v>463000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>302000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>720300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>848200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>412000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>524700</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1016800</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3">
-        <v>978000</v>
+        <v>1330800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1218400</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G59" s="3">
-        <v>943700</v>
+        <v>1188800</v>
       </c>
       <c r="H59" s="3">
-        <v>1089900</v>
+        <v>1007800</v>
       </c>
       <c r="I59" s="3">
-        <v>1308100</v>
+        <v>1164000</v>
       </c>
       <c r="J59" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="K59" s="3">
         <v>898300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>887200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>880800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>955900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>322800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>617400</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7066500</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3">
-        <v>8126500</v>
+        <v>9188800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8476700</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G60" s="3">
-        <v>6733100</v>
+        <v>9876000</v>
       </c>
       <c r="H60" s="3">
-        <v>8301500</v>
+        <v>7190800</v>
       </c>
       <c r="I60" s="3">
-        <v>6679900</v>
+        <v>8865800</v>
       </c>
       <c r="J60" s="3">
+        <v>7134100</v>
+      </c>
+      <c r="K60" s="3">
         <v>6899200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6476000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7481400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7146000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4880700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4539100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10454600</v>
+        <v>19439800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>12543500</v>
       </c>
       <c r="F61" s="3">
-        <v>11417100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>9633900</v>
+        <v>13876600</v>
       </c>
       <c r="H61" s="3">
-        <v>9477700</v>
+        <v>10288900</v>
       </c>
       <c r="I61" s="3">
-        <v>8484200</v>
+        <v>10122100</v>
       </c>
       <c r="J61" s="3">
+        <v>9061000</v>
+      </c>
+      <c r="K61" s="3">
         <v>8838600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8251500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8908600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9497600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7241200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6360900</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4442600</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4421500</v>
+        <v>5528900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5331300</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
-        <v>4255400</v>
+        <v>5373900</v>
       </c>
       <c r="H62" s="3">
-        <v>4134700</v>
+        <v>4544700</v>
       </c>
       <c r="I62" s="3">
-        <v>3284000</v>
+        <v>4415800</v>
       </c>
       <c r="J62" s="3">
+        <v>3507300</v>
+      </c>
+      <c r="K62" s="3">
         <v>3845600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4104300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4229900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4071700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2946300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2973300</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22561800</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="3">
-        <v>24567700</v>
+        <v>34916800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>27069500</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G66" s="3">
-        <v>21203900</v>
+        <v>29859900</v>
       </c>
       <c r="H66" s="3">
-        <v>22461000</v>
+        <v>22645400</v>
       </c>
       <c r="I66" s="3">
-        <v>18986500</v>
+        <v>23988000</v>
       </c>
       <c r="J66" s="3">
+        <v>20277300</v>
+      </c>
+      <c r="K66" s="3">
         <v>20143900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19433500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21220200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21308800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15094000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13897900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,31 +3164,34 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F70" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H70" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I70" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J70" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K70" s="3">
         <v>1100</v>
@@ -3035,13 +3203,16 @@
         <v>1100</v>
       </c>
       <c r="N70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O70" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11350700</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3">
-        <v>11066000</v>
+        <v>13604500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>13912100</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>11195600</v>
+        <v>14110800</v>
       </c>
       <c r="H72" s="3">
-        <v>10108000</v>
+        <v>11956800</v>
       </c>
       <c r="I72" s="3">
-        <v>9069000</v>
+        <v>10795100</v>
       </c>
       <c r="J72" s="3">
+        <v>9685600</v>
+      </c>
+      <c r="K72" s="3">
         <v>7499600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7420300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6436900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6776800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6156600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6344400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18761600</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="3">
-        <v>17315100</v>
+        <v>21627000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>22507000</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G76" s="3">
-        <v>17752600</v>
+        <v>21043800</v>
       </c>
       <c r="H76" s="3">
-        <v>17141200</v>
+        <v>18959500</v>
       </c>
       <c r="I76" s="3">
-        <v>16049100</v>
+        <v>18306600</v>
       </c>
       <c r="J76" s="3">
+        <v>17140200</v>
+      </c>
+      <c r="K76" s="3">
         <v>14851800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15255600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14109000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14601600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14697300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11944700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1528500</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="3">
-        <v>607000</v>
+        <v>476700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1328400</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G81" s="3">
-        <v>1170700</v>
+        <v>701500</v>
       </c>
       <c r="H81" s="3">
-        <v>1618200</v>
+        <v>1250300</v>
       </c>
       <c r="I81" s="3">
-        <v>2301600</v>
+        <v>1728200</v>
       </c>
       <c r="J81" s="3">
+        <v>2458100</v>
+      </c>
+      <c r="K81" s="3">
         <v>402100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1364800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>313000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>760700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>54000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,49 +3629,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>894900</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3">
-        <v>873900</v>
+        <v>977100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1058700</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G83" s="3">
-        <v>680100</v>
+        <v>1055100</v>
       </c>
       <c r="H83" s="3">
-        <v>573700</v>
+        <v>726300</v>
       </c>
       <c r="I83" s="3">
-        <v>602500</v>
+        <v>612700</v>
       </c>
       <c r="J83" s="3">
+        <v>643500</v>
+      </c>
+      <c r="K83" s="3">
         <v>584800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1185800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>596900</v>
       </c>
       <c r="M83" s="3">
         <v>596900</v>
       </c>
       <c r="N83" s="3">
+        <v>596900</v>
+      </c>
+      <c r="O83" s="3">
         <v>429600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>400300</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3539900</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3">
-        <v>299100</v>
+        <v>1192400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4228900</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G89" s="3">
-        <v>2447800</v>
+        <v>362000</v>
       </c>
       <c r="H89" s="3">
-        <v>-344500</v>
+        <v>2614200</v>
       </c>
       <c r="I89" s="3">
-        <v>2478800</v>
+        <v>-367900</v>
       </c>
       <c r="J89" s="3">
+        <v>2647300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-54300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2569300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>77400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2822900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-315800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1747800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,49 +3955,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-657900</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-703300</v>
+        <v>-608000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-702600</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
-        <v>-677900</v>
+        <v>-751100</v>
       </c>
       <c r="H91" s="3">
-        <v>-563800</v>
+        <v>-723900</v>
       </c>
       <c r="I91" s="3">
-        <v>-588100</v>
+        <v>-602100</v>
       </c>
       <c r="J91" s="3">
+        <v>-628100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-568200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-936600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-457800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-610400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-396700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-260600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,49 +4085,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>842900</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-626900</v>
+        <v>-528800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>926200</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
-        <v>-300200</v>
+        <v>-669500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1463100</v>
+        <v>-320600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1888500</v>
+        <v>-1562600</v>
       </c>
       <c r="J94" s="3">
+        <v>-2016800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1085400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-807000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-445400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8485600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>301700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,49 +4149,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-176100</v>
+        <v>-635200</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-188100</v>
       </c>
       <c r="F96" s="3">
-        <v>-470700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-180500</v>
+        <v>-502700</v>
       </c>
       <c r="H96" s="3">
-        <v>-396500</v>
+        <v>-192800</v>
       </c>
       <c r="I96" s="3">
-        <v>-107400</v>
+        <v>-423500</v>
       </c>
       <c r="J96" s="3">
+        <v>-114700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-412000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-386500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-260300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-161600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-275800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-135000</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,127 +4323,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1796500</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-727700</v>
+        <v>6244500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1918700</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G100" s="3">
-        <v>-1606000</v>
+        <v>-777200</v>
       </c>
       <c r="H100" s="3">
-        <v>1480900</v>
+        <v>-1715200</v>
       </c>
       <c r="I100" s="3">
-        <v>-288000</v>
+        <v>1581500</v>
       </c>
       <c r="J100" s="3">
+        <v>-307600</v>
+      </c>
+      <c r="K100" s="3">
         <v>667900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1901700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-859400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2637800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2125800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>610400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23300</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3">
-        <v>6600</v>
+        <v>35500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G101" s="3">
-        <v>10000</v>
+        <v>7100</v>
       </c>
       <c r="H101" s="3">
-        <v>8900</v>
+        <v>10600</v>
       </c>
       <c r="I101" s="3">
-        <v>-75300</v>
+        <v>9500</v>
       </c>
       <c r="J101" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-103000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>63700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-33700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-28000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>170200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2609500</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-1048900</v>
+        <v>6943600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2932400</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G102" s="3">
-        <v>551600</v>
+        <v>-1120200</v>
       </c>
       <c r="H102" s="3">
-        <v>-317900</v>
+        <v>589100</v>
       </c>
       <c r="I102" s="3">
-        <v>227100</v>
+        <v>-339500</v>
       </c>
       <c r="J102" s="3">
+        <v>242500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-574800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-75800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1261100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3052900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2281900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2522500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -739,25 +739,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14449100</v>
+        <v>14611600</v>
       </c>
       <c r="E8" s="3">
-        <v>18080600</v>
+        <v>18283900</v>
       </c>
       <c r="F8" s="3">
-        <v>10152800</v>
+        <v>10267000</v>
       </c>
       <c r="G8" s="3">
-        <v>15196700</v>
+        <v>15367600</v>
       </c>
       <c r="H8" s="3">
-        <v>13363200</v>
+        <v>13513500</v>
       </c>
       <c r="I8" s="3">
-        <v>14128600</v>
+        <v>14287400</v>
       </c>
       <c r="J8" s="3">
-        <v>11596000</v>
+        <v>11726300</v>
       </c>
       <c r="K8" s="3">
         <v>13125100</v>
@@ -783,25 +783,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9895000</v>
+        <v>10006200</v>
       </c>
       <c r="E9" s="3">
-        <v>11982800</v>
+        <v>12117500</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="3">
-        <v>10325500</v>
+        <v>10441600</v>
       </c>
       <c r="H9" s="3">
-        <v>20364800</v>
+        <v>20593800</v>
       </c>
       <c r="I9" s="3">
-        <v>9742400</v>
+        <v>9851900</v>
       </c>
       <c r="J9" s="3">
-        <v>7316200</v>
+        <v>7398500</v>
       </c>
       <c r="K9" s="3">
         <v>8960500</v>
@@ -827,25 +827,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4554200</v>
+        <v>4605400</v>
       </c>
       <c r="E10" s="3">
-        <v>6097800</v>
+        <v>6166400</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="3">
-        <v>4871200</v>
+        <v>4926000</v>
       </c>
       <c r="H10" s="3">
-        <v>-7001600</v>
+        <v>-7080300</v>
       </c>
       <c r="I10" s="3">
-        <v>4386200</v>
+        <v>4435500</v>
       </c>
       <c r="J10" s="3">
-        <v>4279700</v>
+        <v>4327900</v>
       </c>
       <c r="K10" s="3">
         <v>4164600</v>
@@ -989,10 +989,10 @@
         <v>2400</v>
       </c>
       <c r="H14" s="3">
-        <v>52000</v>
+        <v>52600</v>
       </c>
       <c r="I14" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1080,25 +1080,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13534700</v>
+        <v>13686900</v>
       </c>
       <c r="E17" s="3">
-        <v>16138300</v>
+        <v>16319800</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="3">
-        <v>14058800</v>
+        <v>14216800</v>
       </c>
       <c r="H17" s="3">
-        <v>11613700</v>
+        <v>11744300</v>
       </c>
       <c r="I17" s="3">
-        <v>13428300</v>
+        <v>13579300</v>
       </c>
       <c r="J17" s="3">
-        <v>10034500</v>
+        <v>10147400</v>
       </c>
       <c r="K17" s="3">
         <v>12452700</v>
@@ -1124,25 +1124,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>914400</v>
+        <v>924700</v>
       </c>
       <c r="E18" s="3">
-        <v>1942300</v>
+        <v>1964200</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="3">
-        <v>1137900</v>
+        <v>1150700</v>
       </c>
       <c r="H18" s="3">
-        <v>1749500</v>
+        <v>1769200</v>
       </c>
       <c r="I18" s="3">
-        <v>700300</v>
+        <v>708200</v>
       </c>
       <c r="J18" s="3">
-        <v>1561400</v>
+        <v>1579000</v>
       </c>
       <c r="K18" s="3">
         <v>672300</v>
@@ -1186,25 +1186,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-301600</v>
+        <v>-305000</v>
       </c>
       <c r="E20" s="3">
-        <v>-210600</v>
+        <v>-212900</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="3">
-        <v>-289800</v>
+        <v>-293100</v>
       </c>
       <c r="H20" s="3">
-        <v>-278000</v>
+        <v>-281100</v>
       </c>
       <c r="I20" s="3">
-        <v>-112400</v>
+        <v>-113600</v>
       </c>
       <c r="J20" s="3">
-        <v>-130100</v>
+        <v>-131600</v>
       </c>
       <c r="K20" s="3">
         <v>-146200</v>
@@ -1230,25 +1230,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1589800</v>
+        <v>1607700</v>
       </c>
       <c r="E21" s="3">
-        <v>2790500</v>
+        <v>2821800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="3">
-        <v>1903300</v>
+        <v>1924700</v>
       </c>
       <c r="H21" s="3">
-        <v>2197800</v>
+        <v>2222500</v>
       </c>
       <c r="I21" s="3">
-        <v>1200600</v>
+        <v>1214100</v>
       </c>
       <c r="J21" s="3">
-        <v>2074800</v>
+        <v>2098100</v>
       </c>
       <c r="K21" s="3">
         <v>1110900</v>
@@ -1318,25 +1318,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>612700</v>
+        <v>619600</v>
       </c>
       <c r="E23" s="3">
-        <v>1731800</v>
+        <v>1751200</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="3">
-        <v>848100</v>
+        <v>857700</v>
       </c>
       <c r="H23" s="3">
-        <v>1471500</v>
+        <v>1488100</v>
       </c>
       <c r="I23" s="3">
-        <v>587900</v>
+        <v>594500</v>
       </c>
       <c r="J23" s="3">
-        <v>1431300</v>
+        <v>1447400</v>
       </c>
       <c r="K23" s="3">
         <v>526100</v>
@@ -1362,25 +1362,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>132500</v>
+        <v>134000</v>
       </c>
       <c r="E24" s="3">
-        <v>443600</v>
+        <v>448600</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="3">
-        <v>188100</v>
+        <v>190200</v>
       </c>
       <c r="H24" s="3">
-        <v>327700</v>
+        <v>331300</v>
       </c>
       <c r="I24" s="3">
-        <v>140800</v>
+        <v>142300</v>
       </c>
       <c r="J24" s="3">
-        <v>-138400</v>
+        <v>-140000</v>
       </c>
       <c r="K24" s="3">
         <v>142900</v>
@@ -1450,25 +1450,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>480300</v>
+        <v>485700</v>
       </c>
       <c r="E26" s="3">
-        <v>1288200</v>
+        <v>1302700</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="3">
-        <v>660100</v>
+        <v>667500</v>
       </c>
       <c r="H26" s="3">
-        <v>1143900</v>
+        <v>1156700</v>
       </c>
       <c r="I26" s="3">
-        <v>447100</v>
+        <v>452200</v>
       </c>
       <c r="J26" s="3">
-        <v>1569700</v>
+        <v>1587400</v>
       </c>
       <c r="K26" s="3">
         <v>383200</v>
@@ -1494,25 +1494,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>476700</v>
+        <v>482100</v>
       </c>
       <c r="E27" s="3">
-        <v>1272800</v>
+        <v>1287100</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="3">
-        <v>651800</v>
+        <v>659100</v>
       </c>
       <c r="H27" s="3">
-        <v>1140300</v>
+        <v>1153100</v>
       </c>
       <c r="I27" s="3">
-        <v>447100</v>
+        <v>452200</v>
       </c>
       <c r="J27" s="3">
-        <v>1553100</v>
+        <v>1570600</v>
       </c>
       <c r="K27" s="3">
         <v>373300</v>
@@ -1585,22 +1585,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>55600</v>
+        <v>56200</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>49700</v>
+        <v>50200</v>
       </c>
       <c r="H29" s="3">
-        <v>110000</v>
+        <v>111200</v>
       </c>
       <c r="I29" s="3">
-        <v>1281100</v>
+        <v>1295500</v>
       </c>
       <c r="J29" s="3">
-        <v>904900</v>
+        <v>915100</v>
       </c>
       <c r="K29" s="3">
         <v>28800</v>
@@ -1714,25 +1714,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>301600</v>
+        <v>305000</v>
       </c>
       <c r="E32" s="3">
-        <v>210600</v>
+        <v>212900</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="3">
-        <v>289800</v>
+        <v>293100</v>
       </c>
       <c r="H32" s="3">
-        <v>278000</v>
+        <v>281100</v>
       </c>
       <c r="I32" s="3">
-        <v>112400</v>
+        <v>113600</v>
       </c>
       <c r="J32" s="3">
-        <v>130100</v>
+        <v>131600</v>
       </c>
       <c r="K32" s="3">
         <v>146200</v>
@@ -1758,25 +1758,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>476700</v>
+        <v>482100</v>
       </c>
       <c r="E33" s="3">
-        <v>1328400</v>
+        <v>1343300</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>701500</v>
+        <v>709300</v>
       </c>
       <c r="H33" s="3">
-        <v>1250300</v>
+        <v>1264400</v>
       </c>
       <c r="I33" s="3">
-        <v>1728200</v>
+        <v>1747600</v>
       </c>
       <c r="J33" s="3">
-        <v>2458100</v>
+        <v>2485700</v>
       </c>
       <c r="K33" s="3">
         <v>402100</v>
@@ -1846,25 +1846,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>476700</v>
+        <v>482100</v>
       </c>
       <c r="E35" s="3">
-        <v>1328400</v>
+        <v>1343300</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="3">
-        <v>701500</v>
+        <v>709300</v>
       </c>
       <c r="H35" s="3">
-        <v>1250300</v>
+        <v>1264400</v>
       </c>
       <c r="I35" s="3">
-        <v>1728200</v>
+        <v>1747600</v>
       </c>
       <c r="J35" s="3">
-        <v>2458100</v>
+        <v>2485700</v>
       </c>
       <c r="K35" s="3">
         <v>402100</v>
@@ -1975,25 +1975,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11933100</v>
+        <v>12067300</v>
       </c>
       <c r="E41" s="3">
-        <v>4989500</v>
+        <v>5045600</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="3">
-        <v>1883200</v>
+        <v>1904400</v>
       </c>
       <c r="H41" s="3">
-        <v>2775100</v>
+        <v>2806300</v>
       </c>
       <c r="I41" s="3">
-        <v>2186000</v>
+        <v>2210600</v>
       </c>
       <c r="J41" s="3">
-        <v>2501800</v>
+        <v>2530000</v>
       </c>
       <c r="K41" s="3">
         <v>2137700</v>
@@ -2063,25 +2063,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5850600</v>
+        <v>5916400</v>
       </c>
       <c r="E43" s="3">
-        <v>5030900</v>
+        <v>5087400</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="3">
-        <v>7106900</v>
+        <v>7186800</v>
       </c>
       <c r="H43" s="3">
-        <v>4836900</v>
+        <v>4891300</v>
       </c>
       <c r="I43" s="3">
-        <v>6022100</v>
+        <v>6089900</v>
       </c>
       <c r="J43" s="3">
-        <v>4489100</v>
+        <v>4539600</v>
       </c>
       <c r="K43" s="3">
         <v>5396200</v>
@@ -2107,25 +2107,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3477700</v>
+        <v>3516800</v>
       </c>
       <c r="E44" s="3">
-        <v>3643300</v>
+        <v>3684300</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="3">
-        <v>4344800</v>
+        <v>4393600</v>
       </c>
       <c r="H44" s="3">
-        <v>3620900</v>
+        <v>3661600</v>
       </c>
       <c r="I44" s="3">
-        <v>3727300</v>
+        <v>3769200</v>
       </c>
       <c r="J44" s="3">
-        <v>3211600</v>
+        <v>3247700</v>
       </c>
       <c r="K44" s="3">
         <v>3450200</v>
@@ -2151,25 +2151,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31900</v>
+        <v>32300</v>
       </c>
       <c r="E45" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="H45" s="3">
-        <v>17700</v>
+        <v>17900</v>
       </c>
       <c r="I45" s="3">
-        <v>36700</v>
+        <v>37100</v>
       </c>
       <c r="J45" s="3">
-        <v>1355600</v>
+        <v>1370800</v>
       </c>
       <c r="K45" s="3">
         <v>66500</v>
@@ -2195,25 +2195,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21293400</v>
+        <v>21532800</v>
       </c>
       <c r="E46" s="3">
-        <v>13672000</v>
+        <v>13825700</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G46" s="3">
-        <v>13346700</v>
+        <v>13496700</v>
       </c>
       <c r="H46" s="3">
-        <v>11250600</v>
+        <v>11377100</v>
       </c>
       <c r="I46" s="3">
-        <v>11972100</v>
+        <v>12106700</v>
       </c>
       <c r="J46" s="3">
-        <v>11558100</v>
+        <v>11688100</v>
       </c>
       <c r="K46" s="3">
         <v>11050500</v>
@@ -2239,25 +2239,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1240900</v>
+        <v>1254800</v>
       </c>
       <c r="E47" s="3">
-        <v>1353200</v>
+        <v>1368500</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>1863100</v>
+        <v>1884000</v>
       </c>
       <c r="H47" s="3">
-        <v>1617000</v>
+        <v>1635200</v>
       </c>
       <c r="I47" s="3">
-        <v>1536600</v>
+        <v>1553900</v>
       </c>
       <c r="J47" s="3">
-        <v>1690400</v>
+        <v>1709400</v>
       </c>
       <c r="K47" s="3">
         <v>1641500</v>
@@ -2283,25 +2283,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22592200</v>
+        <v>22846200</v>
       </c>
       <c r="E48" s="3">
-        <v>23154100</v>
+        <v>23414400</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>45131200</v>
+        <v>45638600</v>
       </c>
       <c r="H48" s="3">
-        <v>18643700</v>
+        <v>18853300</v>
       </c>
       <c r="I48" s="3">
-        <v>18461500</v>
+        <v>18669100</v>
       </c>
       <c r="J48" s="3">
-        <v>15488900</v>
+        <v>15663000</v>
       </c>
       <c r="K48" s="3">
         <v>13744200</v>
@@ -2327,25 +2327,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11093200</v>
+        <v>11218000</v>
       </c>
       <c r="E49" s="3">
-        <v>11208000</v>
+        <v>11334000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>11476500</v>
+        <v>11605500</v>
       </c>
       <c r="H49" s="3">
-        <v>9975400</v>
+        <v>10087600</v>
       </c>
       <c r="I49" s="3">
-        <v>10190700</v>
+        <v>10305300</v>
       </c>
       <c r="J49" s="3">
-        <v>8533400</v>
+        <v>8629400</v>
       </c>
       <c r="K49" s="3">
         <v>8360200</v>
@@ -2459,25 +2459,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>325300</v>
+        <v>329000</v>
       </c>
       <c r="E52" s="3">
-        <v>190400</v>
+        <v>192600</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>196400</v>
+        <v>198600</v>
       </c>
       <c r="H52" s="3">
-        <v>119500</v>
+        <v>120800</v>
       </c>
       <c r="I52" s="3">
-        <v>134900</v>
+        <v>136400</v>
       </c>
       <c r="J52" s="3">
-        <v>147900</v>
+        <v>149500</v>
       </c>
       <c r="K52" s="3">
         <v>200500</v>
@@ -2547,25 +2547,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56545000</v>
+        <v>57180800</v>
       </c>
       <c r="E54" s="3">
-        <v>49577700</v>
+        <v>50135100</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="3">
-        <v>50904900</v>
+        <v>51477300</v>
       </c>
       <c r="H54" s="3">
-        <v>41606100</v>
+        <v>42073900</v>
       </c>
       <c r="I54" s="3">
-        <v>42295800</v>
+        <v>42771300</v>
       </c>
       <c r="J54" s="3">
-        <v>37418700</v>
+        <v>37839400</v>
       </c>
       <c r="K54" s="3">
         <v>34996800</v>
@@ -2627,25 +2627,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5951200</v>
+        <v>6018100</v>
       </c>
       <c r="E57" s="3">
-        <v>5815100</v>
+        <v>5880500</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="3">
-        <v>6828900</v>
+        <v>6905700</v>
       </c>
       <c r="H57" s="3">
-        <v>5452000</v>
+        <v>5513300</v>
       </c>
       <c r="I57" s="3">
-        <v>6097800</v>
+        <v>6166400</v>
       </c>
       <c r="J57" s="3">
-        <v>5363300</v>
+        <v>5423600</v>
       </c>
       <c r="K57" s="3">
         <v>5538000</v>
@@ -2671,25 +2671,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1906800</v>
+        <v>1928300</v>
       </c>
       <c r="E58" s="3">
-        <v>1443100</v>
+        <v>1459400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>1858300</v>
+        <v>1879200</v>
       </c>
       <c r="H58" s="3">
-        <v>731000</v>
+        <v>739300</v>
       </c>
       <c r="I58" s="3">
-        <v>1604000</v>
+        <v>1622000</v>
       </c>
       <c r="J58" s="3">
-        <v>373800</v>
+        <v>378000</v>
       </c>
       <c r="K58" s="3">
         <v>463000</v>
@@ -2715,25 +2715,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1330800</v>
+        <v>1345700</v>
       </c>
       <c r="E59" s="3">
-        <v>1218400</v>
+        <v>1232100</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="3">
-        <v>1188800</v>
+        <v>1202200</v>
       </c>
       <c r="H59" s="3">
-        <v>1007800</v>
+        <v>1019200</v>
       </c>
       <c r="I59" s="3">
-        <v>1164000</v>
+        <v>1177100</v>
       </c>
       <c r="J59" s="3">
-        <v>1397000</v>
+        <v>1412700</v>
       </c>
       <c r="K59" s="3">
         <v>898300</v>
@@ -2759,25 +2759,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9188800</v>
+        <v>9292100</v>
       </c>
       <c r="E60" s="3">
-        <v>8476700</v>
+        <v>8572000</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="3">
-        <v>9876000</v>
+        <v>9987100</v>
       </c>
       <c r="H60" s="3">
-        <v>7190800</v>
+        <v>7271700</v>
       </c>
       <c r="I60" s="3">
-        <v>8865800</v>
+        <v>8965500</v>
       </c>
       <c r="J60" s="3">
-        <v>7134100</v>
+        <v>7214300</v>
       </c>
       <c r="K60" s="3">
         <v>6899200</v>
@@ -2803,25 +2803,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19439800</v>
+        <v>19658400</v>
       </c>
       <c r="E61" s="3">
-        <v>12543500</v>
+        <v>12684500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>13876600</v>
+        <v>14032600</v>
       </c>
       <c r="H61" s="3">
-        <v>10288900</v>
+        <v>10404500</v>
       </c>
       <c r="I61" s="3">
-        <v>10122100</v>
+        <v>10235900</v>
       </c>
       <c r="J61" s="3">
-        <v>9061000</v>
+        <v>9162900</v>
       </c>
       <c r="K61" s="3">
         <v>8838600</v>
@@ -2847,25 +2847,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5528900</v>
+        <v>5591000</v>
       </c>
       <c r="E62" s="3">
-        <v>5331300</v>
+        <v>5391300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="3">
-        <v>5373900</v>
+        <v>5434300</v>
       </c>
       <c r="H62" s="3">
-        <v>4544700</v>
+        <v>4595800</v>
       </c>
       <c r="I62" s="3">
-        <v>4415800</v>
+        <v>4465400</v>
       </c>
       <c r="J62" s="3">
-        <v>3507300</v>
+        <v>3546700</v>
       </c>
       <c r="K62" s="3">
         <v>3845600</v>
@@ -3023,25 +3023,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34916800</v>
+        <v>35309400</v>
       </c>
       <c r="E66" s="3">
-        <v>27069500</v>
+        <v>27373800</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G66" s="3">
-        <v>29859900</v>
+        <v>30195700</v>
       </c>
       <c r="H66" s="3">
-        <v>22645400</v>
+        <v>22900100</v>
       </c>
       <c r="I66" s="3">
-        <v>23988000</v>
+        <v>24257700</v>
       </c>
       <c r="J66" s="3">
-        <v>20277300</v>
+        <v>20505300</v>
       </c>
       <c r="K66" s="3">
         <v>20143900</v>
@@ -3261,25 +3261,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13604500</v>
+        <v>13757500</v>
       </c>
       <c r="E72" s="3">
-        <v>13912100</v>
+        <v>14068500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>14110800</v>
+        <v>14269500</v>
       </c>
       <c r="H72" s="3">
-        <v>11956800</v>
+        <v>12091200</v>
       </c>
       <c r="I72" s="3">
-        <v>10795100</v>
+        <v>10916500</v>
       </c>
       <c r="J72" s="3">
-        <v>9685600</v>
+        <v>9794500</v>
       </c>
       <c r="K72" s="3">
         <v>7499600</v>
@@ -3437,25 +3437,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21627000</v>
+        <v>21870100</v>
       </c>
       <c r="E76" s="3">
-        <v>22507000</v>
+        <v>22760100</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="3">
-        <v>21043800</v>
+        <v>21280400</v>
       </c>
       <c r="H76" s="3">
-        <v>18959500</v>
+        <v>19172700</v>
       </c>
       <c r="I76" s="3">
-        <v>18306600</v>
+        <v>18512400</v>
       </c>
       <c r="J76" s="3">
-        <v>17140200</v>
+        <v>17332900</v>
       </c>
       <c r="K76" s="3">
         <v>14851800</v>
@@ -3574,25 +3574,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>476700</v>
+        <v>482100</v>
       </c>
       <c r="E81" s="3">
-        <v>1328400</v>
+        <v>1343300</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="3">
-        <v>701500</v>
+        <v>709300</v>
       </c>
       <c r="H81" s="3">
-        <v>1250300</v>
+        <v>1264400</v>
       </c>
       <c r="I81" s="3">
-        <v>1728200</v>
+        <v>1747600</v>
       </c>
       <c r="J81" s="3">
-        <v>2458100</v>
+        <v>2485700</v>
       </c>
       <c r="K81" s="3">
         <v>402100</v>
@@ -3636,25 +3636,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>977100</v>
+        <v>988100</v>
       </c>
       <c r="E83" s="3">
-        <v>1058700</v>
+        <v>1070600</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G83" s="3">
-        <v>1055100</v>
+        <v>1067000</v>
       </c>
       <c r="H83" s="3">
-        <v>726300</v>
+        <v>734500</v>
       </c>
       <c r="I83" s="3">
-        <v>612700</v>
+        <v>619600</v>
       </c>
       <c r="J83" s="3">
-        <v>643500</v>
+        <v>650700</v>
       </c>
       <c r="K83" s="3">
         <v>584800</v>
@@ -3900,25 +3900,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1192400</v>
+        <v>1205800</v>
       </c>
       <c r="E89" s="3">
-        <v>4228900</v>
+        <v>4276400</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G89" s="3">
-        <v>362000</v>
+        <v>366000</v>
       </c>
       <c r="H89" s="3">
-        <v>2614200</v>
+        <v>2643600</v>
       </c>
       <c r="I89" s="3">
-        <v>-367900</v>
+        <v>-372000</v>
       </c>
       <c r="J89" s="3">
-        <v>2647300</v>
+        <v>2677100</v>
       </c>
       <c r="K89" s="3">
         <v>-54300</v>
@@ -3962,25 +3962,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-608000</v>
+        <v>-614800</v>
       </c>
       <c r="E91" s="3">
-        <v>-702600</v>
+        <v>-710500</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G91" s="3">
-        <v>-751100</v>
+        <v>-759600</v>
       </c>
       <c r="H91" s="3">
-        <v>-723900</v>
+        <v>-732100</v>
       </c>
       <c r="I91" s="3">
-        <v>-602100</v>
+        <v>-608900</v>
       </c>
       <c r="J91" s="3">
-        <v>-628100</v>
+        <v>-635200</v>
       </c>
       <c r="K91" s="3">
         <v>-568200</v>
@@ -4094,25 +4094,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-528800</v>
+        <v>-534700</v>
       </c>
       <c r="E94" s="3">
-        <v>926200</v>
+        <v>936600</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G94" s="3">
-        <v>-669500</v>
+        <v>-677000</v>
       </c>
       <c r="H94" s="3">
-        <v>-320600</v>
+        <v>-324200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1562600</v>
+        <v>-1580200</v>
       </c>
       <c r="J94" s="3">
-        <v>-2016800</v>
+        <v>-2039500</v>
       </c>
       <c r="K94" s="3">
         <v>-1085400</v>
@@ -4156,25 +4156,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-635200</v>
+        <v>-642400</v>
       </c>
       <c r="E96" s="3">
-        <v>-188100</v>
+        <v>-190200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-502700</v>
+        <v>-508400</v>
       </c>
       <c r="H96" s="3">
-        <v>-192800</v>
+        <v>-195000</v>
       </c>
       <c r="I96" s="3">
-        <v>-423500</v>
+        <v>-428200</v>
       </c>
       <c r="J96" s="3">
-        <v>-114700</v>
+        <v>-116000</v>
       </c>
       <c r="K96" s="3">
         <v>-412000</v>
@@ -4332,25 +4332,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6244500</v>
+        <v>6314700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1918700</v>
+        <v>-1940200</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G100" s="3">
-        <v>-777200</v>
+        <v>-785900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1715200</v>
+        <v>-1734500</v>
       </c>
       <c r="I100" s="3">
-        <v>1581500</v>
+        <v>1599300</v>
       </c>
       <c r="J100" s="3">
-        <v>-307600</v>
+        <v>-311000</v>
       </c>
       <c r="K100" s="3">
         <v>667900</v>
@@ -4376,25 +4376,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>35500</v>
+        <v>35900</v>
       </c>
       <c r="E101" s="3">
-        <v>24800</v>
+        <v>25100</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G101" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H101" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="I101" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="J101" s="3">
-        <v>-80400</v>
+        <v>-81300</v>
       </c>
       <c r="K101" s="3">
         <v>-103000</v>
@@ -4420,25 +4420,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6943600</v>
+        <v>7021700</v>
       </c>
       <c r="E102" s="3">
-        <v>2932400</v>
+        <v>2965400</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G102" s="3">
-        <v>-1120200</v>
+        <v>-1132800</v>
       </c>
       <c r="H102" s="3">
-        <v>589100</v>
+        <v>595700</v>
       </c>
       <c r="I102" s="3">
-        <v>-339500</v>
+        <v>-343300</v>
       </c>
       <c r="J102" s="3">
-        <v>242500</v>
+        <v>245200</v>
       </c>
       <c r="K102" s="3">
         <v>-574800</v>

--- a/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>CRH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,221 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14611600</v>
+        <v>15372000</v>
       </c>
       <c r="E8" s="3">
-        <v>18283900</v>
+        <v>12215000</v>
       </c>
       <c r="F8" s="3">
-        <v>10267000</v>
+        <v>15285000</v>
       </c>
       <c r="G8" s="3">
-        <v>15367600</v>
+        <v>8583000</v>
       </c>
       <c r="H8" s="3">
-        <v>13513500</v>
+        <v>12847000</v>
       </c>
       <c r="I8" s="3">
-        <v>14287400</v>
+        <v>27449000</v>
       </c>
       <c r="J8" s="3">
+        <v>11944000</v>
+      </c>
+      <c r="K8" s="3">
         <v>11726300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13125100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27218300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14241400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16005200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10998600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12428300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10006200</v>
+        <v>10060000</v>
       </c>
       <c r="E9" s="3">
-        <v>12117500</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10441600</v>
+        <v>8365000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10130000</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="3">
-        <v>20593800</v>
+        <v>8729000</v>
       </c>
       <c r="I9" s="3">
-        <v>9851900</v>
+        <v>28271000</v>
       </c>
       <c r="J9" s="3">
+        <v>8236000</v>
+      </c>
+      <c r="K9" s="3">
         <v>7398500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8960500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18189500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9780400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10894500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7845700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8641600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4605400</v>
+        <v>5312000</v>
       </c>
       <c r="E10" s="3">
-        <v>6166400</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4926000</v>
+        <v>3850000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5155000</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H10" s="3">
-        <v>-7080300</v>
+        <v>4118000</v>
       </c>
       <c r="I10" s="3">
-        <v>4435500</v>
+        <v>-822000</v>
       </c>
       <c r="J10" s="3">
+        <v>3708000</v>
+      </c>
+      <c r="K10" s="3">
         <v>4327900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4164600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9028900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4461000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5110700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3152900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,8 +896,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -927,8 +941,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,38 +988,41 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>2400</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>52600</v>
+        <v>2000</v>
       </c>
       <c r="I14" s="3">
-        <v>14400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
+        <v>44000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>5500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1015,8 +1035,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1082,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1100,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13686900</v>
+        <v>13873000</v>
       </c>
       <c r="E17" s="3">
-        <v>16319800</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>14216800</v>
+        <v>11451000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>13288000</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H17" s="3">
-        <v>11744300</v>
+        <v>12051000</v>
       </c>
       <c r="I17" s="3">
-        <v>13579300</v>
+        <v>25003000</v>
       </c>
       <c r="J17" s="3">
+        <v>11352000</v>
+      </c>
+      <c r="K17" s="3">
         <v>10147400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12452700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25123300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13581700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14784500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10776700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11552600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>924700</v>
+        <v>1499000</v>
       </c>
       <c r="E18" s="3">
-        <v>1964200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1150700</v>
+        <v>764000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1997000</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H18" s="3">
-        <v>1769200</v>
+        <v>796000</v>
       </c>
       <c r="I18" s="3">
-        <v>708200</v>
+        <v>2446000</v>
       </c>
       <c r="J18" s="3">
+        <v>592000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1579000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>672300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2095000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>659700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1220700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>221900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>875700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,96 +1213,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-305000</v>
+        <v>-353000</v>
       </c>
       <c r="E20" s="3">
-        <v>-212900</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-293100</v>
+        <v>-246000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-533000</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H20" s="3">
-        <v>-281100</v>
+        <v>-79000</v>
       </c>
       <c r="I20" s="3">
-        <v>-113600</v>
+        <v>-478000</v>
       </c>
       <c r="J20" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-131600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-146200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-316200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-203100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-132400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-147900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1607700</v>
+        <v>2014000</v>
       </c>
       <c r="E21" s="3">
-        <v>2821800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1924700</v>
+        <v>1344000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2359000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>2222500</v>
+        <v>1609000</v>
       </c>
       <c r="I21" s="3">
-        <v>1214100</v>
+        <v>3305000</v>
       </c>
       <c r="J21" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="K21" s="3">
         <v>2098100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1110900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2964600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1053500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1685200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>503600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1221900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,96 +1352,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>619600</v>
+        <v>1146000</v>
       </c>
       <c r="E23" s="3">
-        <v>1751200</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3">
-        <v>857700</v>
+        <v>518000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1464000</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H23" s="3">
-        <v>1488100</v>
+        <v>717000</v>
       </c>
       <c r="I23" s="3">
-        <v>594500</v>
+        <v>1968000</v>
       </c>
       <c r="J23" s="3">
+        <v>497000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1447400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>526100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1778800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>456600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1088300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>134000</v>
+        <v>387000</v>
       </c>
       <c r="E24" s="3">
-        <v>448600</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>375000</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>159000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>467000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>142900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>473200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>127900</v>
+      </c>
+      <c r="O24" s="3">
+        <v>323100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>18800</v>
+      </c>
+      <c r="Q24" s="3">
         <v>190200</v>
       </c>
-      <c r="H24" s="3">
-        <v>331300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>142300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-140000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>142900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>473200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>127900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>323100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>18800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>190200</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1493,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>485700</v>
+        <v>759000</v>
       </c>
       <c r="E26" s="3">
-        <v>1302700</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3">
-        <v>667500</v>
+        <v>406000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1089000</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H26" s="3">
-        <v>1156700</v>
+        <v>558000</v>
       </c>
       <c r="I26" s="3">
-        <v>452200</v>
+        <v>1501000</v>
       </c>
       <c r="J26" s="3">
+        <v>378000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1587400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>383200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1305500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>328700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>765200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>55200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>482100</v>
+        <v>719000</v>
       </c>
       <c r="E27" s="3">
-        <v>1287100</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3">
-        <v>659100</v>
+        <v>403000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1076000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H27" s="3">
-        <v>1153100</v>
+        <v>551000</v>
       </c>
       <c r="I27" s="3">
-        <v>452200</v>
+        <v>1497000</v>
       </c>
       <c r="J27" s="3">
+        <v>378000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1570600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>373300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1275900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>313000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>760700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1634,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1585,32 +1646,32 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>56200</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3">
-        <v>50200</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>47000</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>111200</v>
+        <v>42000</v>
       </c>
       <c r="I29" s="3">
-        <v>1295500</v>
+        <v>1388000</v>
       </c>
       <c r="J29" s="3">
+        <v>1083000</v>
+      </c>
+      <c r="K29" s="3">
         <v>915100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>28800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>88900</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1620,8 +1681,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1728,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1775,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>305000</v>
+        <v>353000</v>
       </c>
       <c r="E32" s="3">
-        <v>212900</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>293100</v>
+        <v>246000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>533000</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H32" s="3">
-        <v>281100</v>
+        <v>79000</v>
       </c>
       <c r="I32" s="3">
-        <v>113600</v>
+        <v>478000</v>
       </c>
       <c r="J32" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K32" s="3">
         <v>131600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>146200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>316200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>203100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>132400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>147900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>482100</v>
+        <v>719000</v>
       </c>
       <c r="E33" s="3">
-        <v>1343300</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3">
-        <v>709300</v>
+        <v>403000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H33" s="3">
-        <v>1264400</v>
+        <v>593000</v>
       </c>
       <c r="I33" s="3">
-        <v>1747600</v>
+        <v>2885000</v>
       </c>
       <c r="J33" s="3">
+        <v>1461000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2485700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>402100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1364800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>313000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>760700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>54000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1916,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>482100</v>
+        <v>719000</v>
       </c>
       <c r="E35" s="3">
-        <v>1343300</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3">
-        <v>709300</v>
+        <v>403000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H35" s="3">
-        <v>1264400</v>
+        <v>593000</v>
       </c>
       <c r="I35" s="3">
-        <v>1747600</v>
+        <v>2885000</v>
       </c>
       <c r="J35" s="3">
+        <v>1461000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2485700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>402100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1364800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>313000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>760700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>54000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2036,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,52 +2055,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12067300</v>
+        <v>7721000</v>
       </c>
       <c r="E41" s="3">
-        <v>5045600</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1904400</v>
+        <v>10088000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>9918000</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H41" s="3">
-        <v>2806300</v>
+        <v>1592000</v>
       </c>
       <c r="I41" s="3">
-        <v>2210600</v>
+        <v>9191000</v>
       </c>
       <c r="J41" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2530000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2137700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2689000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1564100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2825200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6149600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3829000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,316 +2147,340 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5916400</v>
+        <v>4122000</v>
       </c>
       <c r="E43" s="3">
-        <v>5087400</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
-        <v>7186800</v>
+        <v>4946000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4253000</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H43" s="3">
-        <v>4891300</v>
+        <v>6008000</v>
       </c>
       <c r="I43" s="3">
-        <v>6089900</v>
+        <v>4682000</v>
       </c>
       <c r="J43" s="3">
+        <v>5091000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4539600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5396200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4373300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5548200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4467800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4211600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3121200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3516800</v>
+        <v>3117000</v>
       </c>
       <c r="E44" s="3">
-        <v>3684300</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4393600</v>
+        <v>2940000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3080000</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H44" s="3">
-        <v>3661600</v>
+        <v>3673000</v>
       </c>
       <c r="I44" s="3">
-        <v>3769200</v>
+        <v>3505000</v>
       </c>
       <c r="J44" s="3">
+        <v>3151000</v>
+      </c>
+      <c r="K44" s="3">
         <v>3247700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3450200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3227000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3362600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3223500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2978000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32300</v>
+        <v>17000</v>
       </c>
       <c r="E45" s="3">
-        <v>8400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
-        <v>12000</v>
+        <v>27000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="3">
-        <v>17900</v>
+        <v>10000</v>
       </c>
       <c r="I45" s="3">
-        <v>37100</v>
+        <v>17000</v>
       </c>
       <c r="J45" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1370800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>66500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>640900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21532800</v>
+        <v>14977000</v>
       </c>
       <c r="E46" s="3">
-        <v>13825700</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3">
-        <v>13496700</v>
+        <v>18001000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>17258000</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H46" s="3">
-        <v>11377100</v>
+        <v>11283000</v>
       </c>
       <c r="I46" s="3">
-        <v>12106700</v>
+        <v>17395000</v>
       </c>
       <c r="J46" s="3">
+        <v>10121000</v>
+      </c>
+      <c r="K46" s="3">
         <v>11688100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11050500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10314600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10504100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10543300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13365000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10243800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1254800</v>
+        <v>964000</v>
       </c>
       <c r="E47" s="3">
-        <v>1368500</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1884000</v>
+        <v>1049000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
-        <v>1635200</v>
+        <v>1575000</v>
       </c>
       <c r="I47" s="3">
-        <v>1553900</v>
+        <v>1565000</v>
       </c>
       <c r="J47" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1709400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1641500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1687600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1688600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1676300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1814700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1686800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22846200</v>
+        <v>19317000</v>
       </c>
       <c r="E48" s="3">
-        <v>23414400</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3">
-        <v>45638600</v>
+        <v>19099000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>36998000</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H48" s="3">
-        <v>18853300</v>
+        <v>38153000</v>
       </c>
       <c r="I48" s="3">
-        <v>18669100</v>
+        <v>18046000</v>
       </c>
       <c r="J48" s="3">
+        <v>15607000</v>
+      </c>
+      <c r="K48" s="3">
         <v>15663000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13744200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13933600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14146000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14655400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9181500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8712000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11218000</v>
+        <v>9373000</v>
       </c>
       <c r="E49" s="3">
-        <v>11334000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3">
-        <v>11605500</v>
+        <v>9378000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>9475000</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H49" s="3">
-        <v>10087600</v>
+        <v>9702000</v>
       </c>
       <c r="I49" s="3">
-        <v>10305300</v>
+        <v>9656000</v>
       </c>
       <c r="J49" s="3">
+        <v>8615000</v>
+      </c>
+      <c r="K49" s="3">
         <v>8629400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8360200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8521600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8629200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8774000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5177700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4898300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2523,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,52 +2570,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>329000</v>
+        <v>313000</v>
       </c>
       <c r="E52" s="3">
-        <v>192600</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3">
-        <v>198600</v>
+        <v>275000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>161000</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3">
-        <v>120800</v>
+        <v>166000</v>
       </c>
       <c r="I52" s="3">
-        <v>136400</v>
+        <v>115000</v>
       </c>
       <c r="J52" s="3">
+        <v>114000</v>
+      </c>
+      <c r="K52" s="3">
         <v>149500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>232800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>362400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>262500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>253500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>302800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2664,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57180800</v>
+        <v>44944000</v>
       </c>
       <c r="E54" s="3">
-        <v>50135100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3">
-        <v>51477300</v>
+        <v>47802000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>47612000</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H54" s="3">
-        <v>42073900</v>
+        <v>43034000</v>
       </c>
       <c r="I54" s="3">
-        <v>42771300</v>
+        <v>46777000</v>
       </c>
       <c r="J54" s="3">
+        <v>35756000</v>
+      </c>
+      <c r="K54" s="3">
         <v>37839400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34996800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34690200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35330300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35911500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29792500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25843800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2732,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,272 +2751,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6018100</v>
+        <v>4792000</v>
       </c>
       <c r="E57" s="3">
-        <v>5880500</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3">
-        <v>6905700</v>
+        <v>5031000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4916000</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H57" s="3">
-        <v>5513300</v>
+        <v>5773000</v>
       </c>
       <c r="I57" s="3">
-        <v>6166400</v>
+        <v>5277000</v>
       </c>
       <c r="J57" s="3">
+        <v>5155000</v>
+      </c>
+      <c r="K57" s="3">
         <v>5423600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5538000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5286900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5880300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5341800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4145900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3397000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1928300</v>
+        <v>1553000</v>
       </c>
       <c r="E58" s="3">
-        <v>1459400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1879200</v>
+        <v>1612000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>7735000</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>739300</v>
+        <v>2594000</v>
       </c>
       <c r="I58" s="3">
-        <v>1622000</v>
+        <v>7213000</v>
       </c>
       <c r="J58" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="K58" s="3">
         <v>378000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>463000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>302000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>720300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>848200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>412000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>524700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1345700</v>
+        <v>1120000</v>
       </c>
       <c r="E59" s="3">
-        <v>1232100</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1202200</v>
+        <v>1125000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1030000</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H59" s="3">
-        <v>1019200</v>
+        <v>1005000</v>
       </c>
       <c r="I59" s="3">
-        <v>1177100</v>
+        <v>976000</v>
       </c>
       <c r="J59" s="3">
+        <v>984000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1412700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>898300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>887200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>880800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>955900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>322800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>617400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9292100</v>
+        <v>7465000</v>
       </c>
       <c r="E60" s="3">
-        <v>8572000</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3">
-        <v>9987100</v>
+        <v>7768000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>12866000</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H60" s="3">
-        <v>7271700</v>
+        <v>8349000</v>
       </c>
       <c r="I60" s="3">
-        <v>8965500</v>
+        <v>13466000</v>
       </c>
       <c r="J60" s="3">
+        <v>7495000</v>
+      </c>
+      <c r="K60" s="3">
         <v>7214300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6899200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6476000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7481400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7146000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4880700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4539100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19658400</v>
+        <v>12297000</v>
       </c>
       <c r="E61" s="3">
-        <v>12684500</v>
+        <v>16434000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>10604000</v>
       </c>
       <c r="G61" s="3">
-        <v>14032600</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>10404500</v>
+        <v>11731000</v>
       </c>
       <c r="I61" s="3">
-        <v>10235900</v>
+        <v>9959000</v>
       </c>
       <c r="J61" s="3">
+        <v>8557000</v>
+      </c>
+      <c r="K61" s="3">
         <v>9162900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8838600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8251500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8908600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9497600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7241200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6360900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5591000</v>
+        <v>4834000</v>
       </c>
       <c r="E62" s="3">
-        <v>5391300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
-        <v>5434300</v>
+        <v>4674000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4507000</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3">
-        <v>4595800</v>
+        <v>4543000</v>
       </c>
       <c r="I62" s="3">
-        <v>4465400</v>
+        <v>4400000</v>
       </c>
       <c r="J62" s="3">
+        <v>3733000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3546700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3845600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4104300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4229900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4071700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2946300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2973300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3078,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3125,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3172,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35309400</v>
+        <v>25288000</v>
       </c>
       <c r="E66" s="3">
-        <v>27373800</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="3">
-        <v>30195700</v>
+        <v>29518000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>28584000</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H66" s="3">
-        <v>22900100</v>
+        <v>25243000</v>
       </c>
       <c r="I66" s="3">
-        <v>24257700</v>
+        <v>28427000</v>
       </c>
       <c r="J66" s="3">
+        <v>20279000</v>
+      </c>
+      <c r="K66" s="3">
         <v>20505300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20143900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19433500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21220200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21308800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15094000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13897900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3240,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3285,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,34 +3332,37 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K70" s="3">
         <v>1200</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K70" s="3">
-        <v>1100</v>
       </c>
       <c r="L70" s="3">
         <v>1100</v>
@@ -3206,13 +3374,16 @@
         <v>1100</v>
       </c>
       <c r="O70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="P70" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3426,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13757500</v>
+        <v>12009000</v>
       </c>
       <c r="E72" s="3">
-        <v>14068500</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3">
-        <v>14269500</v>
+        <v>11501000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>11761000</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H72" s="3">
-        <v>12091200</v>
+        <v>11929000</v>
       </c>
       <c r="I72" s="3">
-        <v>10916500</v>
+        <v>12083000</v>
       </c>
       <c r="J72" s="3">
+        <v>9126000</v>
+      </c>
+      <c r="K72" s="3">
         <v>9794500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7499600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7420300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6436900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6776800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6156600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6344400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3520,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3567,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3614,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21870100</v>
+        <v>19655000</v>
       </c>
       <c r="E76" s="3">
-        <v>22760100</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="3">
-        <v>21280400</v>
+        <v>18283000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>19027000</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H76" s="3">
-        <v>19172700</v>
+        <v>17790000</v>
       </c>
       <c r="I76" s="3">
-        <v>18512400</v>
+        <v>18349000</v>
       </c>
       <c r="J76" s="3">
+        <v>15476000</v>
+      </c>
+      <c r="K76" s="3">
         <v>17332900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14851800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15255600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14109000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14601600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14697300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11944700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3708,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>482100</v>
+        <v>719000</v>
       </c>
       <c r="E81" s="3">
-        <v>1343300</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="3">
-        <v>709300</v>
+        <v>403000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H81" s="3">
-        <v>1264400</v>
+        <v>593000</v>
       </c>
       <c r="I81" s="3">
-        <v>1747600</v>
+        <v>2885000</v>
       </c>
       <c r="J81" s="3">
+        <v>1461000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2485700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>402100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1364800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>313000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>760700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>54000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,52 +3828,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>988100</v>
+        <v>868000</v>
       </c>
       <c r="E83" s="3">
-        <v>1070600</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1067000</v>
+        <v>826000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>895000</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H83" s="3">
-        <v>734500</v>
+        <v>892000</v>
       </c>
       <c r="I83" s="3">
-        <v>619600</v>
+        <v>1337000</v>
       </c>
       <c r="J83" s="3">
+        <v>518000</v>
+      </c>
+      <c r="K83" s="3">
         <v>650700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>584800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1185800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>596900</v>
       </c>
       <c r="N83" s="3">
         <v>596900</v>
       </c>
       <c r="O83" s="3">
+        <v>596900</v>
+      </c>
+      <c r="P83" s="3">
         <v>429600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>400300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3920,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3967,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4014,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4061,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4108,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1205800</v>
+        <v>2930000</v>
       </c>
       <c r="E89" s="3">
-        <v>4276400</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3">
-        <v>366000</v>
+        <v>1008000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3575000</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H89" s="3">
-        <v>2643600</v>
+        <v>306000</v>
       </c>
       <c r="I89" s="3">
-        <v>-372000</v>
+        <v>2246000</v>
       </c>
       <c r="J89" s="3">
+        <v>-311000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2677100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-54300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2569300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>77400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2822900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-315800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1747800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,52 +4176,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-614800</v>
+        <v>-482000</v>
       </c>
       <c r="E91" s="3">
-        <v>-710500</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-759600</v>
+        <v>-514000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-594000</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
-        <v>-732100</v>
+        <v>-635000</v>
       </c>
       <c r="I91" s="3">
-        <v>-608900</v>
+        <v>-1121000</v>
       </c>
       <c r="J91" s="3">
+        <v>-509000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-635200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-568200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-936600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-457800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-610400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-396700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-260600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4268,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,52 +4315,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-534700</v>
+        <v>-613000</v>
       </c>
       <c r="E94" s="3">
-        <v>936600</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-677000</v>
+        <v>-447000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>783000</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H94" s="3">
-        <v>-324200</v>
+        <v>-566000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1580200</v>
+        <v>-1592000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1321000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2039500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1085400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-807000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-445400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8485600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>301700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,52 +4383,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-642400</v>
+        <v>-170000</v>
       </c>
       <c r="E96" s="3">
-        <v>-190200</v>
+        <v>-537000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-159000</v>
       </c>
       <c r="G96" s="3">
-        <v>-508400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-195000</v>
+        <v>-425000</v>
       </c>
       <c r="I96" s="3">
-        <v>-428200</v>
+        <v>-521000</v>
       </c>
       <c r="J96" s="3">
+        <v>-358000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-116000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-412000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-386500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-260300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-161600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-275800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-135000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4475,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4522,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,136 +4569,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6314700</v>
+        <v>-4992000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1940200</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-785900</v>
+        <v>5279000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-1622000</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H100" s="3">
-        <v>-1734500</v>
+        <v>-657000</v>
       </c>
       <c r="I100" s="3">
-        <v>1599300</v>
+        <v>-113000</v>
       </c>
       <c r="J100" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-311000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>667900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1901700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-859400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2637800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2125800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>610400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>35900</v>
+        <v>308000</v>
       </c>
       <c r="E101" s="3">
-        <v>25100</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3">
-        <v>7200</v>
+        <v>30000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H101" s="3">
-        <v>10800</v>
+        <v>6000</v>
       </c>
       <c r="I101" s="3">
-        <v>9600</v>
+        <v>17000</v>
       </c>
       <c r="J101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-81300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-103000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>63700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-33700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-28000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>170200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7021700</v>
+        <v>-2367000</v>
       </c>
       <c r="E102" s="3">
-        <v>2965400</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-1132800</v>
+        <v>5870000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H102" s="3">
-        <v>595700</v>
+        <v>-947000</v>
       </c>
       <c r="I102" s="3">
-        <v>-343300</v>
+        <v>211000</v>
       </c>
       <c r="J102" s="3">
+        <v>-287000</v>
+      </c>
+      <c r="K102" s="3">
         <v>245200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-574800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-75800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1261100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3052900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2281900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2522500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -805,7 +805,7 @@
         <v>8729000</v>
       </c>
       <c r="I9" s="3">
-        <v>28271000</v>
+        <v>18391000</v>
       </c>
       <c r="J9" s="3">
         <v>8236000</v>
@@ -852,7 +852,7 @@
         <v>4118000</v>
       </c>
       <c r="I10" s="3">
-        <v>-822000</v>
+        <v>9058000</v>
       </c>
       <c r="J10" s="3">
         <v>3708000</v>
@@ -1012,7 +1012,7 @@
         <v>2000</v>
       </c>
       <c r="I14" s="3">
-        <v>44000</v>
+        <v>8000</v>
       </c>
       <c r="J14" s="3">
         <v>12000</v>

--- a/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>CRH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,234 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14044000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15372000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12215000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15285000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8583000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12847000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>27449000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11944000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11726300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13125100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27218300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14241400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16005200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10998600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12428300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9435000</v>
+      </c>
+      <c r="E9" s="3">
         <v>10060000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8365000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10130000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3">
         <v>8729000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18391000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8236000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7398500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8960500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18189500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9780400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10894500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7845700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8641600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4609000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5312000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3850000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5155000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
         <v>4118000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9058000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3708000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4327900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4164600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9028900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4461000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5110700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3152900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,8 +910,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -944,8 +958,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,41 +1008,44 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>2000</v>
       </c>
       <c r="E14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
-        <v>8000</v>
-      </c>
       <c r="J14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>5500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1038,8 +1058,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,8 +1108,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,102 +1127,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12897000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13873000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11451000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13288000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3">
         <v>12051000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25003000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11352000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10147400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12452700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25123300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13581700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14784500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10776700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11552600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1499000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>764000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1997000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
         <v>796000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2446000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>592000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1579000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>672300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2095000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>659700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1220700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>221900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>875700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,102 +1247,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-353000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-246000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-533000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
         <v>-79000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-478000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-95000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-131600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-146200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-316200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-203100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-132400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-147900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1894000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2014000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1344000</v>
       </c>
-      <c r="F21" s="3">
-        <v>2359000</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
-        <v>1609000</v>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>3305000</v>
+        <v>272000</v>
       </c>
       <c r="J21" s="3">
+        <v>2233000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1015000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2098100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1110900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2964600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1053500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1685200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>503600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1221900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,102 +1395,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1146000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>518000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1464000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
         <v>717000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1968000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>497000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1447400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>526100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1778800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>456600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1088300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>74000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E24" s="3">
         <v>387000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>112000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>375000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
         <v>159000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>467000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>119000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-140000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>142900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>473200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>127900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>323100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>190200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,102 +1545,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>815000</v>
+      </c>
+      <c r="E26" s="3">
         <v>759000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>406000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1089000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
         <v>558000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1501000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>378000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1587400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>383200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1305500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>328700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>765200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>55200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>785000</v>
+      </c>
+      <c r="E27" s="3">
         <v>719000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>403000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1076000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3">
         <v>551000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1497000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>378000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1570600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>373300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1275900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>313000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>760700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>54000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,44 +1695,47 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>47000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>42000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1388000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1083000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>915100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>28800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>88900</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1684,8 +1745,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1795,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,102 +1845,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E32" s="3">
         <v>353000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>246000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>533000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
         <v>79000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>478000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>95000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>131600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>146200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>316200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>203100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>132400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>147900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>785000</v>
+      </c>
+      <c r="E33" s="3">
         <v>719000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>403000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1123000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3">
         <v>593000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2885000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1461000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2485700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>402100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1364800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>313000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>760700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>54000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,107 +1995,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>785000</v>
+      </c>
+      <c r="E35" s="3">
         <v>719000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>403000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1123000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
         <v>593000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2885000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1461000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2485700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>402100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1364800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>313000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>760700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>54000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2122,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,55 +2142,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6292000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7721000</v>
       </c>
-      <c r="E41" s="3">
-        <v>10088000</v>
-      </c>
       <c r="F41" s="3">
+        <v>14661000</v>
+      </c>
+      <c r="G41" s="3">
         <v>9918000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3">
         <v>1592000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9191000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1848000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2530000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2137700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2689000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1564100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2825200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6149600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3829000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2150,337 +2240,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5335000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4122000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4946000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4253000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
         <v>6008000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4682000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5091000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4539600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5396200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4373300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5548200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4467800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4211600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3121200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3193000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3117000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2940000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3080000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
         <v>3673000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3505000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3151000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3247700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3450200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3227000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3362600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3223500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2978000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E45" s="3">
         <v>17000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
         <v>10000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1370800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>66500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>640900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14855000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14977000</v>
       </c>
-      <c r="E46" s="3">
-        <v>18001000</v>
-      </c>
       <c r="F46" s="3">
+        <v>22574000</v>
+      </c>
+      <c r="G46" s="3">
         <v>17258000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3">
         <v>11283000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17395000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10121000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11688100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11050500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10314600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10504100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10543300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13365000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10243800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>875000</v>
+      </c>
+      <c r="E47" s="3">
         <v>964000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1049000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1144000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
         <v>1575000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1565000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1299000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1709400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1641500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1687600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1688600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1676300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1814700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1686800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19100000</v>
+      </c>
+      <c r="E48" s="3">
         <v>19317000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19099000</v>
       </c>
-      <c r="F48" s="3">
-        <v>36998000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="G48" s="3">
+        <v>39148000</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3">
         <v>38153000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18046000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15607000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15663000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13744200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13933600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14146000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14655400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9181500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8712000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9468000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9373000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9378000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9475000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
         <v>9702000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9656000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8615000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8629400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8360200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8521600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8629200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8774000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5177700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4898300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2640,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,55 +2690,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E52" s="3">
         <v>313000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>275000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>161000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
         <v>166000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>115000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>114000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>149500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>232800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>362400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>262500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>253500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>302800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,55 +2790,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44529000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44944000</v>
       </c>
-      <c r="E54" s="3">
-        <v>47802000</v>
-      </c>
       <c r="F54" s="3">
+        <v>52375000</v>
+      </c>
+      <c r="G54" s="3">
         <v>47612000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3">
         <v>43034000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46777000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35756000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37839400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34996800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34690200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35330300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35911500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29792500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25843800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2862,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,290 +2882,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6198000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4792000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5031000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4916000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
         <v>5773000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5277000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5155000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5423600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5538000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5286900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5880300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5341800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4145900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3397000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>452000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1553000</v>
       </c>
-      <c r="E58" s="3">
-        <v>1612000</v>
-      </c>
       <c r="F58" s="3">
-        <v>7735000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2594000</v>
+        <v>6185000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>6920000</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
+        <v>1571000</v>
+      </c>
+      <c r="J58" s="3">
         <v>7213000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1356000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>378000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>463000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>302000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>720300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>848200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>412000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>524700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1120000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1125000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1030000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
         <v>1005000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>976000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>984000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1412700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>898300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>887200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>880800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>955900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>322800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>617400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7912000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7465000</v>
       </c>
-      <c r="E60" s="3">
-        <v>7768000</v>
-      </c>
       <c r="F60" s="3">
+        <v>12341000</v>
+      </c>
+      <c r="G60" s="3">
         <v>12866000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3">
         <v>8349000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13466000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7495000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7214300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6899200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6476000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7481400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7146000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4880700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4539100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11995000</v>
+      </c>
+      <c r="E61" s="3">
         <v>12297000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16434000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10604000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>11731000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9959000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8557000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9162900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8838600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8251500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8908600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9497600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7241200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6360900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4550000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4834000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4674000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4507000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
         <v>4543000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4400000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3733000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3546700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3845600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4104300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4229900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4071700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2946300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2973300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3230,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3280,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,55 +3330,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25152000</v>
+      </c>
+      <c r="E66" s="3">
         <v>25288000</v>
       </c>
-      <c r="E66" s="3">
-        <v>29518000</v>
-      </c>
       <c r="F66" s="3">
+        <v>34091000</v>
+      </c>
+      <c r="G66" s="3">
         <v>28584000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3">
         <v>25243000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28427000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20279000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20505300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20143900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19433500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21220200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21308800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15094000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13897900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3402,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3450,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,8 +3500,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3350,10 +3518,10 @@
         <v>1000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H70" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>1000</v>
@@ -3362,10 +3530,10 @@
         <v>1000</v>
       </c>
       <c r="K70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L70" s="3">
         <v>1200</v>
-      </c>
-      <c r="L70" s="3">
-        <v>1100</v>
       </c>
       <c r="M70" s="3">
         <v>1100</v>
@@ -3377,13 +3545,16 @@
         <v>1100</v>
       </c>
       <c r="P70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q70" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,55 +3600,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19463000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12009000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11501000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11761000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
         <v>11929000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12083000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9126000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9794500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7499600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7420300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6436900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6776800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6156600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6344400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3700,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3750,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,55 +3800,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19376000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19655000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18283000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19027000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3">
         <v>17790000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18349000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15476000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17332900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14851800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15255600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14109000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14601600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14697300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11944700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,107 +3900,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>785000</v>
+      </c>
+      <c r="E81" s="3">
         <v>719000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>403000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1123000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3">
         <v>593000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2885000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1461000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2485700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>402100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1364800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>313000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>760700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>54000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,55 +4027,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>848000</v>
+      </c>
+      <c r="E83" s="3">
         <v>868000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>826000</v>
       </c>
-      <c r="F83" s="3">
-        <v>895000</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="3">
-        <v>892000</v>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I83" s="3">
-        <v>1337000</v>
+        <v>-445000</v>
       </c>
       <c r="J83" s="3">
+        <v>265000</v>
+      </c>
+      <c r="K83" s="3">
         <v>518000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>650700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>584800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1185800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>596900</v>
       </c>
       <c r="O83" s="3">
         <v>596900</v>
       </c>
       <c r="P83" s="3">
+        <v>596900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>429600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>400300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4125,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4175,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4225,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4275,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,55 +4325,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1565000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2930000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1008000</v>
       </c>
-      <c r="F89" s="3">
-        <v>3575000</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="3">
-        <v>306000</v>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I89" s="3">
-        <v>2246000</v>
+        <v>-1940000</v>
       </c>
       <c r="J89" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-311000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2677100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-54300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2569300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>77400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2822900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-315800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1747800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,55 +4397,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-587000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-482000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-514000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-594000</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>-635000</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
-        <v>-1121000</v>
+        <v>486000</v>
       </c>
       <c r="J91" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-509000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-635200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-568200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-936600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-457800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-610400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-396700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-260600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4495,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,55 +4545,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-519000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-613000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-447000</v>
       </c>
-      <c r="F94" s="3">
-        <v>783000</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
-        <v>-566000</v>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3">
-        <v>-1592000</v>
+        <v>1026000</v>
       </c>
       <c r="J94" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1321000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2039500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1085400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-807000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-445400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8485600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>301700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,55 +4617,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-729000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-170000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-537000</v>
       </c>
-      <c r="F96" s="3">
-        <v>-159000</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-425000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-521000</v>
+        <v>96000</v>
       </c>
       <c r="J96" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-358000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-116000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-412000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-386500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-260300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-161600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-275800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-135000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4715,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4765,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,145 +4815,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2368000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4992000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5279000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-1622000</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="3">
-        <v>-657000</v>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I100" s="3">
-        <v>-113000</v>
+        <v>-544000</v>
       </c>
       <c r="J100" s="3">
+        <v>-456000</v>
+      </c>
+      <c r="K100" s="3">
         <v>1337000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-311000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>667900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1901700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-859400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2637800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2125800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>610400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="E101" s="3">
         <v>308000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>30000</v>
       </c>
-      <c r="F101" s="3">
-        <v>21000</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
-        <v>6000</v>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I101" s="3">
-        <v>17000</v>
+        <v>-11000</v>
       </c>
       <c r="J101" s="3">
+        <v>178000</v>
+      </c>
+      <c r="K101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-81300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-103000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>63700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-33700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-28000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>170200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1429000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2367000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5870000</v>
       </c>
-      <c r="F102" s="3">
-        <v>2479000</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="3">
-        <v>-947000</v>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I102" s="3">
-        <v>211000</v>
+        <v>-1158000</v>
       </c>
       <c r="J102" s="3">
+        <v>525000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-287000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>245200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-574800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-75800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1261100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3052900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2281900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2522500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>CRH</t>
   </si>
@@ -2160,14 +2160,14 @@
       <c r="G41" s="3">
         <v>9918000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
+      <c r="H41" s="3">
+        <v>1592000</v>
       </c>
       <c r="I41" s="3">
-        <v>1592000</v>
+        <v>9191000</v>
       </c>
       <c r="J41" s="3">
-        <v>9191000</v>
+        <v>1848000</v>
       </c>
       <c r="K41" s="3">
         <v>1848000</v>
@@ -2260,14 +2260,14 @@
       <c r="G43" s="3">
         <v>4253000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
+      <c r="H43" s="3">
+        <v>6008000</v>
       </c>
       <c r="I43" s="3">
-        <v>6008000</v>
+        <v>4682000</v>
       </c>
       <c r="J43" s="3">
-        <v>4682000</v>
+        <v>5091000</v>
       </c>
       <c r="K43" s="3">
         <v>5091000</v>
@@ -2310,14 +2310,14 @@
       <c r="G44" s="3">
         <v>3080000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
+      <c r="H44" s="3">
+        <v>3673000</v>
       </c>
       <c r="I44" s="3">
-        <v>3673000</v>
+        <v>3505000</v>
       </c>
       <c r="J44" s="3">
-        <v>3505000</v>
+        <v>3151000</v>
       </c>
       <c r="K44" s="3">
         <v>3151000</v>
@@ -2360,14 +2360,14 @@
       <c r="G45" s="3">
         <v>7000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+      <c r="H45" s="3">
+        <v>10000</v>
       </c>
       <c r="I45" s="3">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="J45" s="3">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="K45" s="3">
         <v>31000</v>
@@ -2410,14 +2410,14 @@
       <c r="G46" s="3">
         <v>17258000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
+      <c r="H46" s="3">
+        <v>11283000</v>
       </c>
       <c r="I46" s="3">
-        <v>11283000</v>
+        <v>17395000</v>
       </c>
       <c r="J46" s="3">
-        <v>17395000</v>
+        <v>10121000</v>
       </c>
       <c r="K46" s="3">
         <v>10121000</v>
@@ -2460,14 +2460,14 @@
       <c r="G47" s="3">
         <v>1144000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>1575000</v>
       </c>
       <c r="I47" s="3">
-        <v>1575000</v>
+        <v>1565000</v>
       </c>
       <c r="J47" s="3">
-        <v>1565000</v>
+        <v>1299000</v>
       </c>
       <c r="K47" s="3">
         <v>1299000</v>
@@ -2510,14 +2510,14 @@
       <c r="G48" s="3">
         <v>39148000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
+      <c r="H48" s="3">
+        <v>38153000</v>
       </c>
       <c r="I48" s="3">
-        <v>38153000</v>
+        <v>18046000</v>
       </c>
       <c r="J48" s="3">
-        <v>18046000</v>
+        <v>15607000</v>
       </c>
       <c r="K48" s="3">
         <v>15607000</v>
@@ -2560,14 +2560,14 @@
       <c r="G49" s="3">
         <v>9475000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+      <c r="H49" s="3">
+        <v>9702000</v>
       </c>
       <c r="I49" s="3">
-        <v>9702000</v>
+        <v>9656000</v>
       </c>
       <c r="J49" s="3">
-        <v>9656000</v>
+        <v>8615000</v>
       </c>
       <c r="K49" s="3">
         <v>8615000</v>
@@ -2710,14 +2710,14 @@
       <c r="G52" s="3">
         <v>161000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>166000</v>
       </c>
       <c r="I52" s="3">
-        <v>166000</v>
+        <v>115000</v>
       </c>
       <c r="J52" s="3">
-        <v>115000</v>
+        <v>114000</v>
       </c>
       <c r="K52" s="3">
         <v>114000</v>
@@ -2810,14 +2810,14 @@
       <c r="G54" s="3">
         <v>47612000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
+      <c r="H54" s="3">
+        <v>43034000</v>
       </c>
       <c r="I54" s="3">
-        <v>43034000</v>
+        <v>46777000</v>
       </c>
       <c r="J54" s="3">
-        <v>46777000</v>
+        <v>35756000</v>
       </c>
       <c r="K54" s="3">
         <v>35756000</v>
@@ -2900,14 +2900,14 @@
       <c r="G57" s="3">
         <v>4916000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
+      <c r="H57" s="3">
+        <v>5773000</v>
       </c>
       <c r="I57" s="3">
-        <v>5773000</v>
+        <v>5277000</v>
       </c>
       <c r="J57" s="3">
-        <v>5277000</v>
+        <v>5155000</v>
       </c>
       <c r="K57" s="3">
         <v>5155000</v>
@@ -2950,14 +2950,14 @@
       <c r="G58" s="3">
         <v>6920000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>1571000</v>
       </c>
       <c r="I58" s="3">
-        <v>1571000</v>
+        <v>7213000</v>
       </c>
       <c r="J58" s="3">
-        <v>7213000</v>
+        <v>1356000</v>
       </c>
       <c r="K58" s="3">
         <v>1356000</v>
@@ -3000,14 +3000,14 @@
       <c r="G59" s="3">
         <v>1030000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
+      <c r="H59" s="3">
+        <v>1005000</v>
       </c>
       <c r="I59" s="3">
-        <v>1005000</v>
+        <v>976000</v>
       </c>
       <c r="J59" s="3">
-        <v>976000</v>
+        <v>984000</v>
       </c>
       <c r="K59" s="3">
         <v>984000</v>
@@ -3050,14 +3050,14 @@
       <c r="G60" s="3">
         <v>12866000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
+      <c r="H60" s="3">
+        <v>8349000</v>
       </c>
       <c r="I60" s="3">
-        <v>8349000</v>
+        <v>13466000</v>
       </c>
       <c r="J60" s="3">
-        <v>13466000</v>
+        <v>7495000</v>
       </c>
       <c r="K60" s="3">
         <v>7495000</v>
@@ -3101,13 +3101,13 @@
         <v>10604000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>11731000</v>
       </c>
       <c r="I61" s="3">
-        <v>11731000</v>
+        <v>9959000</v>
       </c>
       <c r="J61" s="3">
-        <v>9959000</v>
+        <v>8557000</v>
       </c>
       <c r="K61" s="3">
         <v>8557000</v>
@@ -3150,14 +3150,14 @@
       <c r="G62" s="3">
         <v>4507000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3">
+        <v>4543000</v>
       </c>
       <c r="I62" s="3">
-        <v>4543000</v>
+        <v>4400000</v>
       </c>
       <c r="J62" s="3">
-        <v>4400000</v>
+        <v>3733000</v>
       </c>
       <c r="K62" s="3">
         <v>3733000</v>
@@ -3350,14 +3350,14 @@
       <c r="G66" s="3">
         <v>28584000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
+      <c r="H66" s="3">
+        <v>25243000</v>
       </c>
       <c r="I66" s="3">
-        <v>25243000</v>
+        <v>28427000</v>
       </c>
       <c r="J66" s="3">
-        <v>28427000</v>
+        <v>20279000</v>
       </c>
       <c r="K66" s="3">
         <v>20279000</v>
@@ -3521,7 +3521,7 @@
         <v>1000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I70" s="3">
         <v>1000</v>
@@ -3620,14 +3620,14 @@
       <c r="G72" s="3">
         <v>11761000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
+      <c r="H72" s="3">
+        <v>11929000</v>
       </c>
       <c r="I72" s="3">
-        <v>11929000</v>
+        <v>12083000</v>
       </c>
       <c r="J72" s="3">
-        <v>12083000</v>
+        <v>9126000</v>
       </c>
       <c r="K72" s="3">
         <v>9126000</v>
@@ -3820,14 +3820,14 @@
       <c r="G76" s="3">
         <v>19027000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
+      <c r="H76" s="3">
+        <v>17790000</v>
       </c>
       <c r="I76" s="3">
-        <v>17790000</v>
+        <v>18349000</v>
       </c>
       <c r="J76" s="3">
-        <v>18349000</v>
+        <v>15476000</v>
       </c>
       <c r="K76" s="3">
         <v>15476000</v>

--- a/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>CRH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,234 +665,247 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16937000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14044000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15372000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12215000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15285000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8583000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12847000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>27449000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11944000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11726300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13125100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27218300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14241400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16005200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10998600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12428300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11058000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9435000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10060000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8365000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10130000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
         <v>8729000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18391000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8236000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7398500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8960500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18189500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9780400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10894500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7845700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8641600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5879000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4609000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5312000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3850000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5155000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <v>4118000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9058000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3708000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4327900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4164600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9028900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4461000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5110700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3152900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +924,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,8 +975,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1011,44 +1028,47 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>5500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1061,8 +1081,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1111,8 +1134,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1128,108 +1154,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14499000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12897000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13873000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11451000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13288000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
         <v>12051000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25003000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11352000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10147400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12452700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25123300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13581700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14784500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10776700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11552600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2438000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1147000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1499000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>764000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1997000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
         <v>796000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2446000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>592000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1579000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>672300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2095000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>659700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1220700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>221900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>875700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,108 +1281,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-101000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-353000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-246000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-533000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
         <v>-79000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-478000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-95000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-131600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-146200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-316200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-203100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-132400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-147900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3213000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1894000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2014000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1344000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>272000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2233000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1015000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2098100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1110900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2964600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1053500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1685200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>503600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1221900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1398,108 +1438,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2296000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1046000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1146000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>518000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1464000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3">
         <v>717000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1968000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>497000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1447400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>526100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1778800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>456600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1088300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>74000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E24" s="3">
         <v>231000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>387000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>112000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>375000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
         <v>159000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>467000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>119000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-140000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>142900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>473200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>127900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>323100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>190200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1548,108 +1597,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1806000</v>
+      </c>
+      <c r="E26" s="3">
         <v>815000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>759000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>406000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1089000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
         <v>558000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1501000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>378000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1587400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>383200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1305500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>328700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>765200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>55200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1780000</v>
+      </c>
+      <c r="E27" s="3">
         <v>785000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>719000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>403000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1076000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3">
         <v>551000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1497000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>378000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1570600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>373300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1275900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>313000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>760700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>54000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1698,47 +1756,50 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>47000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>42000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1388000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1083000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>915100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>28800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>88900</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1748,8 +1809,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1798,8 +1862,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1848,108 +1915,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E32" s="3">
         <v>101000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>353000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>246000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>533000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3">
         <v>79000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>478000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>95000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>131600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>146200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>316200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>203100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>132400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>147900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1780000</v>
+      </c>
+      <c r="E33" s="3">
         <v>785000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>719000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>403000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1123000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3">
         <v>593000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2885000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1461000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2485700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>402100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1364800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>313000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>760700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>54000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1998,113 +2074,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1780000</v>
+      </c>
+      <c r="E35" s="3">
         <v>785000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>719000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>403000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1123000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3">
         <v>593000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2885000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1461000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2485700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>402100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1364800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>313000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>760700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>54000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2123,8 +2208,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2143,58 +2229,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5783000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6292000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7721000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14661000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9918000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1592000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9191000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1848000</v>
       </c>
       <c r="K41" s="3">
         <v>1848000</v>
       </c>
       <c r="L41" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="M41" s="3">
         <v>2530000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2137700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2689000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1564100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2825200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6149600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3829000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2243,358 +2333,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4611000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5335000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4122000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4946000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4253000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6008000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4682000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>5091000</v>
       </c>
       <c r="K43" s="3">
         <v>5091000</v>
       </c>
       <c r="L43" s="3">
+        <v>5091000</v>
+      </c>
+      <c r="M43" s="3">
         <v>4539600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5396200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4373300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5548200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4467800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4211600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3121200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3611000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3193000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3117000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2940000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3080000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3673000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3505000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3151000</v>
       </c>
       <c r="K44" s="3">
         <v>3151000</v>
       </c>
       <c r="L44" s="3">
+        <v>3151000</v>
+      </c>
+      <c r="M44" s="3">
         <v>3247700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3450200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3227000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3362600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3223500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2978000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E45" s="3">
         <v>35000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>31000</v>
       </c>
       <c r="K45" s="3">
         <v>31000</v>
       </c>
       <c r="L45" s="3">
+        <v>31000</v>
+      </c>
+      <c r="M45" s="3">
         <v>1370800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>66500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>640900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14044000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14855000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14977000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22574000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17258000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11283000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17395000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>10121000</v>
       </c>
       <c r="K46" s="3">
         <v>10121000</v>
       </c>
       <c r="L46" s="3">
+        <v>10121000</v>
+      </c>
+      <c r="M46" s="3">
         <v>11688100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11050500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10314600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10504100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10543300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13365000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10243800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>904000</v>
+      </c>
+      <c r="E47" s="3">
         <v>875000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>964000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1049000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1144000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1575000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1565000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1299000</v>
       </c>
       <c r="K47" s="3">
         <v>1299000</v>
       </c>
       <c r="L47" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="M47" s="3">
         <v>1709400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1641500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1687600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1688600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1676300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1814700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1686800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19502000</v>
+      </c>
+      <c r="E48" s="3">
         <v>19100000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19317000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19099000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>39148000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>38153000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18046000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>15607000</v>
       </c>
       <c r="K48" s="3">
         <v>15607000</v>
       </c>
       <c r="L48" s="3">
+        <v>15607000</v>
+      </c>
+      <c r="M48" s="3">
         <v>15663000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13744200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13933600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14146000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14655400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9181500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8712000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9848000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9468000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9373000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9378000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9475000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9702000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9656000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>8615000</v>
       </c>
       <c r="K49" s="3">
         <v>8615000</v>
       </c>
       <c r="L49" s="3">
+        <v>8615000</v>
+      </c>
+      <c r="M49" s="3">
         <v>8629400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8360200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8521600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8629200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8774000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5177700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4898300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2643,8 +2757,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2693,58 +2810,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E52" s="3">
         <v>231000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>313000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>275000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>161000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>166000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>115000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>114000</v>
       </c>
       <c r="K52" s="3">
         <v>114000</v>
       </c>
       <c r="L52" s="3">
+        <v>114000</v>
+      </c>
+      <c r="M52" s="3">
         <v>149500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>232800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>362400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>262500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>253500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>302800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2793,58 +2916,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44670000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44529000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44944000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>52375000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47612000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43034000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46777000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>35756000</v>
       </c>
       <c r="K54" s="3">
         <v>35756000</v>
       </c>
       <c r="L54" s="3">
+        <v>35756000</v>
+      </c>
+      <c r="M54" s="3">
         <v>37839400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34996800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34690200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35330300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35911500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29792500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25843800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2863,8 +2992,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2883,308 +3013,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5692000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6198000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4792000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5031000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4916000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5773000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5277000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>5155000</v>
       </c>
       <c r="K57" s="3">
         <v>5155000</v>
       </c>
       <c r="L57" s="3">
+        <v>5155000</v>
+      </c>
+      <c r="M57" s="3">
         <v>5423600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5538000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5286900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5880300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5341800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4145900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3397000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>846000</v>
+      </c>
+      <c r="E58" s="3">
         <v>452000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1553000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6185000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6920000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1571000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7213000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1356000</v>
       </c>
       <c r="K58" s="3">
         <v>1356000</v>
       </c>
       <c r="L58" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="M58" s="3">
         <v>378000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>463000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>302000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>720300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>848200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>412000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>524700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1262000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1120000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1125000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1030000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1005000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>976000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>984000</v>
       </c>
       <c r="K59" s="3">
         <v>984000</v>
       </c>
       <c r="L59" s="3">
+        <v>984000</v>
+      </c>
+      <c r="M59" s="3">
         <v>1412700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>898300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>887200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>880800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>955900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>322800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>617400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7581000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7912000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7465000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12341000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12866000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8349000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13466000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>7495000</v>
       </c>
       <c r="K60" s="3">
         <v>7495000</v>
       </c>
       <c r="L60" s="3">
+        <v>7495000</v>
+      </c>
+      <c r="M60" s="3">
         <v>7214300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6899200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6476000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7481400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7146000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4880700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4539100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11312000</v>
+      </c>
+      <c r="E61" s="3">
         <v>11995000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12297000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16434000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10604000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11731000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9959000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>8557000</v>
       </c>
       <c r="K61" s="3">
         <v>8557000</v>
       </c>
       <c r="L61" s="3">
+        <v>8557000</v>
+      </c>
+      <c r="M61" s="3">
         <v>9162900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8838600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8251500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8908600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9497600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7241200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6360900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4863000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4550000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4834000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4674000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4507000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4543000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4400000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3733000</v>
       </c>
       <c r="K62" s="3">
         <v>3733000</v>
       </c>
       <c r="L62" s="3">
+        <v>3733000</v>
+      </c>
+      <c r="M62" s="3">
         <v>3546700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3845600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4104300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4229900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4071700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2946300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2973300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3233,8 +3382,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3283,8 +3435,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3333,58 +3488,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24437000</v>
+      </c>
+      <c r="E66" s="3">
         <v>25152000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25288000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34091000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28584000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25243000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28427000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>20279000</v>
       </c>
       <c r="K66" s="3">
         <v>20279000</v>
       </c>
       <c r="L66" s="3">
+        <v>20279000</v>
+      </c>
+      <c r="M66" s="3">
         <v>20505300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20143900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19433500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21220200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21308800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15094000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13897900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3403,8 +3564,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3453,8 +3615,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3503,8 +3668,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3533,10 +3701,10 @@
         <v>1000</v>
       </c>
       <c r="L70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M70" s="3">
         <v>1200</v>
-      </c>
-      <c r="M70" s="3">
-        <v>1100</v>
       </c>
       <c r="N70" s="3">
         <v>1100</v>
@@ -3548,13 +3716,16 @@
         <v>1100</v>
       </c>
       <c r="Q70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="R70" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3603,58 +3774,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20215000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19463000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12009000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11501000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11761000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11929000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12083000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>9126000</v>
       </c>
       <c r="K72" s="3">
         <v>9126000</v>
       </c>
       <c r="L72" s="3">
+        <v>9126000</v>
+      </c>
+      <c r="M72" s="3">
         <v>9794500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7499600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7420300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6436900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6776800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6156600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6344400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3703,8 +3880,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3753,8 +3933,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3803,58 +3986,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20232000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19376000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19655000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18283000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19027000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17790000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18349000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>15476000</v>
       </c>
       <c r="K76" s="3">
         <v>15476000</v>
       </c>
       <c r="L76" s="3">
+        <v>15476000</v>
+      </c>
+      <c r="M76" s="3">
         <v>17332900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14851800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15255600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14109000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14601600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14697300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11944700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3903,113 +4092,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1780000</v>
+      </c>
+      <c r="E81" s="3">
         <v>785000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>719000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>403000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1123000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3">
         <v>593000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2885000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1461000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2485700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>402100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1364800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>313000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>760700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>54000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4028,58 +4226,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>917000</v>
+      </c>
+      <c r="E83" s="3">
         <v>848000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>868000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>826000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3">
         <v>-445000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>265000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>518000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>650700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>584800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1185800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>596900</v>
       </c>
       <c r="P83" s="3">
         <v>596900</v>
       </c>
       <c r="Q83" s="3">
+        <v>596900</v>
+      </c>
+      <c r="R83" s="3">
         <v>429600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>400300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4128,8 +4330,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4178,8 +4383,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4228,8 +4436,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4278,8 +4489,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4328,58 +4542,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2645000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1565000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2930000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1008000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1940000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>57000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-311000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2677100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-54300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2569300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>77400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2822900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-315800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1747800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4398,58 +4618,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-967000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-587000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-482000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-514000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
         <v>486000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-77000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-509000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-635200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-568200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-936600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-457800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-610400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-396700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-260600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4498,8 +4722,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4548,58 +4775,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2027000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-519000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-613000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-447000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
         <v>1026000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1093000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1321000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2039500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1085400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-807000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-445400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8485600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>301700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4618,58 +4851,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-729000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-170000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-537000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>96000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-52000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-358000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-116000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-412000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-386500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-260300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-161600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-275800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-135000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4718,8 +4955,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4768,8 +5008,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4818,154 +5061,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-937000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2368000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4992000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5279000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3">
         <v>-544000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-456000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1337000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-311000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>667900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1901700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-859400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2637800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2125800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>610400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-107000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>308000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>30000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>178000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-81300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-103000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>63700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-33700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>170200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-509000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1429000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2367000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5870000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1158000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>525000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-287000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>245200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-574800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-75800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1261100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3052900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2281900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2522500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>CRH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,247 +665,260 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16937000</v>
+        <v>14998000</v>
       </c>
       <c r="E8" s="3">
-        <v>14044000</v>
+        <v>16039000</v>
       </c>
       <c r="F8" s="3">
+        <v>13167000</v>
+      </c>
+      <c r="G8" s="3">
         <v>15372000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12215000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15285000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8583000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12847000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27449000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11944000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11726300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13125100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27218300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14241400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16005200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10998600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12428300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11058000</v>
+        <v>10243000</v>
       </c>
       <c r="E9" s="3">
-        <v>9435000</v>
+        <v>10483000</v>
       </c>
       <c r="F9" s="3">
+        <v>8867000</v>
+      </c>
+      <c r="G9" s="3">
         <v>10060000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8365000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10130000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3">
         <v>8729000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18391000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8236000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7398500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8960500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18189500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9780400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10894500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7845700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8641600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5879000</v>
+        <v>4755000</v>
       </c>
       <c r="E10" s="3">
-        <v>4609000</v>
+        <v>5556000</v>
       </c>
       <c r="F10" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="G10" s="3">
         <v>5312000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3850000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5155000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>4118000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9058000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3708000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4327900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4164600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9028900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4461000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5110700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3152900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,8 +938,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +992,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1031,47 +1048,50 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>12000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>5500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1084,8 +1104,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1137,8 +1160,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1155,114 +1181,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14499000</v>
+        <v>13613000</v>
       </c>
       <c r="E17" s="3">
-        <v>12897000</v>
+        <v>13733000</v>
       </c>
       <c r="F17" s="3">
+        <v>12142000</v>
+      </c>
+      <c r="G17" s="3">
         <v>13873000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11451000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13288000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>12051000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25003000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11352000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10147400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12452700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25123300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13581700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14784500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10776700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11552600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2438000</v>
+        <v>1385000</v>
       </c>
       <c r="E18" s="3">
-        <v>1147000</v>
+        <v>2306000</v>
       </c>
       <c r="F18" s="3">
+        <v>1025000</v>
+      </c>
+      <c r="G18" s="3">
         <v>1499000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>764000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1997000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>796000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2446000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>592000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1579000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>672300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2095000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>659700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1220700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>221900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>875700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1282,114 +1315,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-142000</v>
+        <v>-182000</v>
       </c>
       <c r="E20" s="3">
-        <v>-101000</v>
+        <v>-132000</v>
       </c>
       <c r="F20" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-353000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-246000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-533000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>-79000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-478000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-95000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-131600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-146200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-316200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-203100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-132400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-147900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3213000</v>
+        <v>2064000</v>
       </c>
       <c r="E21" s="3">
-        <v>1894000</v>
+        <v>3091000</v>
       </c>
       <c r="F21" s="3">
+        <v>1777000</v>
+      </c>
+      <c r="G21" s="3">
         <v>2014000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1344000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>272000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2233000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1015000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2098100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1110900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2964600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1053500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1685200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>503600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1221900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1441,114 +1481,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2296000</v>
+        <v>1203000</v>
       </c>
       <c r="E23" s="3">
-        <v>1046000</v>
+        <v>2174000</v>
       </c>
       <c r="F23" s="3">
+        <v>929000</v>
+      </c>
+      <c r="G23" s="3">
         <v>1146000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>518000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1464000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>717000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1968000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>497000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1447400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>526100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1778800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>456600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1088300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>74000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>490000</v>
+        <v>265000</v>
       </c>
       <c r="E24" s="3">
-        <v>231000</v>
+        <v>460000</v>
       </c>
       <c r="F24" s="3">
+        <v>201000</v>
+      </c>
+      <c r="G24" s="3">
         <v>387000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>112000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>375000</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>159000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>467000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>119000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-140000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>142900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>473200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>127900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>323100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>190200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1600,114 +1649,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1806000</v>
+        <v>938000</v>
       </c>
       <c r="E26" s="3">
-        <v>815000</v>
+        <v>1714000</v>
       </c>
       <c r="F26" s="3">
+        <v>728000</v>
+      </c>
+      <c r="G26" s="3">
         <v>759000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>406000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1089000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>558000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1501000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>378000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1587400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>383200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1305500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>328700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>765200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>55200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1780000</v>
+        <v>926000</v>
       </c>
       <c r="E27" s="3">
-        <v>785000</v>
+        <v>1688000</v>
       </c>
       <c r="F27" s="3">
+        <v>698000</v>
+      </c>
+      <c r="G27" s="3">
         <v>719000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>403000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1076000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>551000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1497000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>378000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1570600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>373300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1275900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>313000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>760700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>54000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1759,50 +1817,53 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+        <v>1168000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>92000</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>87000</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>47000</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>42000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1388000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1083000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>915100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>28800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>88900</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1812,8 +1873,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1865,8 +1929,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1918,114 +1985,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>142000</v>
+        <v>182000</v>
       </c>
       <c r="E32" s="3">
-        <v>101000</v>
+        <v>132000</v>
       </c>
       <c r="F32" s="3">
+        <v>96000</v>
+      </c>
+      <c r="G32" s="3">
         <v>353000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>246000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>533000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>79000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>478000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>95000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>131600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>146200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>316200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>203100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>132400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>147900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1780000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>785000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>719000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>403000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1123000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>593000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2885000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1461000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2485700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>402100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1364800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>313000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>760700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>54000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2077,119 +2153,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1780000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>785000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>719000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>403000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1123000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>593000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2885000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1461000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2485700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>402100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1364800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>313000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>760700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>54000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2209,8 +2294,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2230,61 +2316,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6826000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5783000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6292000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7721000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14661000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9918000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1592000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9191000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1848000</v>
       </c>
       <c r="L41" s="3">
         <v>1848000</v>
       </c>
       <c r="M41" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="N41" s="3">
         <v>2530000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2137700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2689000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1564100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2825200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6149600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3829000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2336,379 +2426,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5858000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4611000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5335000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4122000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4946000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4253000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6008000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4682000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>5091000</v>
       </c>
       <c r="L43" s="3">
         <v>5091000</v>
       </c>
       <c r="M43" s="3">
+        <v>5091000</v>
+      </c>
+      <c r="N43" s="3">
         <v>4539600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5396200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4373300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5548200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4467800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4211600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3121200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3792000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3611000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3193000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3117000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2940000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3080000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3673000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3505000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3151000</v>
       </c>
       <c r="L44" s="3">
         <v>3151000</v>
       </c>
       <c r="M44" s="3">
+        <v>3151000</v>
+      </c>
+      <c r="N44" s="3">
         <v>3247700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3450200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3227000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3362600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3223500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2978000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E45" s="3">
         <v>39000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>31000</v>
       </c>
       <c r="L45" s="3">
         <v>31000</v>
       </c>
       <c r="M45" s="3">
+        <v>31000</v>
+      </c>
+      <c r="N45" s="3">
         <v>1370800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>66500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>29200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>640900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16588000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14044000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14855000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14977000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22574000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17258000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11283000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17395000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>10121000</v>
       </c>
       <c r="L46" s="3">
         <v>10121000</v>
       </c>
       <c r="M46" s="3">
+        <v>10121000</v>
+      </c>
+      <c r="N46" s="3">
         <v>11688100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11050500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10314600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10504100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10543300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13365000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10243800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>879000</v>
+      </c>
+      <c r="E47" s="3">
         <v>904000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>875000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>964000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1049000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1144000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1575000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1565000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1299000</v>
       </c>
       <c r="L47" s="3">
         <v>1299000</v>
       </c>
       <c r="M47" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="N47" s="3">
         <v>1709400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1641500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1687600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1688600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1676300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1814700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1686800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18298000</v>
+      </c>
+      <c r="E48" s="3">
         <v>19502000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19100000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19317000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19099000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>39148000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>38153000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18046000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>15607000</v>
       </c>
       <c r="L48" s="3">
         <v>15607000</v>
       </c>
       <c r="M48" s="3">
+        <v>15607000</v>
+      </c>
+      <c r="N48" s="3">
         <v>15663000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13744200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13933600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14146000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14655400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9181500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8712000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8726000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9848000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9468000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9373000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9378000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9475000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9702000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9656000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>8615000</v>
       </c>
       <c r="L49" s="3">
         <v>8615000</v>
       </c>
       <c r="M49" s="3">
+        <v>8615000</v>
+      </c>
+      <c r="N49" s="3">
         <v>8629400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8360200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8521600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8629200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8774000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5177700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4898300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2760,8 +2874,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2813,61 +2930,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E52" s="3">
         <v>372000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>231000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>313000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>275000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>161000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>166000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>115000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>114000</v>
       </c>
       <c r="L52" s="3">
         <v>114000</v>
       </c>
       <c r="M52" s="3">
+        <v>114000</v>
+      </c>
+      <c r="N52" s="3">
         <v>149500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>232800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>362400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>262500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>253500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>302800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2919,61 +3042,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44836000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44670000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44529000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44944000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>52375000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>47612000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43034000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46777000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>35756000</v>
       </c>
       <c r="L54" s="3">
         <v>35756000</v>
       </c>
       <c r="M54" s="3">
+        <v>35756000</v>
+      </c>
+      <c r="N54" s="3">
         <v>37839400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34996800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34690200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35330300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35911500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29792500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25843800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2993,8 +3122,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3014,326 +3144,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6172000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5692000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6198000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4792000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5031000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4916000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5773000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5277000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>5155000</v>
       </c>
       <c r="L57" s="3">
         <v>5155000</v>
       </c>
       <c r="M57" s="3">
+        <v>5155000</v>
+      </c>
+      <c r="N57" s="3">
         <v>5423600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5538000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5286900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5880300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5341800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4145900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3397000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1610000</v>
+      </c>
+      <c r="E58" s="3">
         <v>846000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>452000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1553000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6185000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6920000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1571000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7213000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1356000</v>
       </c>
       <c r="L58" s="3">
         <v>1356000</v>
       </c>
       <c r="M58" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="N58" s="3">
         <v>378000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>463000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>302000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>720300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>848200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>412000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>524700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1497000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1043000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1262000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1120000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1125000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1030000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1005000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>976000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>984000</v>
       </c>
       <c r="L59" s="3">
         <v>984000</v>
       </c>
       <c r="M59" s="3">
+        <v>984000</v>
+      </c>
+      <c r="N59" s="3">
         <v>1412700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>898300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>887200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>880800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>955900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>322800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>617400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9279000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7581000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7912000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7465000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12341000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12866000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8349000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13466000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>7495000</v>
       </c>
       <c r="L60" s="3">
         <v>7495000</v>
       </c>
       <c r="M60" s="3">
+        <v>7495000</v>
+      </c>
+      <c r="N60" s="3">
         <v>7214300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6899200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6476000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7481400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7146000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4880700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4539100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9598000</v>
+      </c>
+      <c r="E61" s="3">
         <v>11312000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11995000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12297000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16434000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10604000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11731000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9959000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>8557000</v>
       </c>
       <c r="L61" s="3">
         <v>8557000</v>
       </c>
       <c r="M61" s="3">
+        <v>8557000</v>
+      </c>
+      <c r="N61" s="3">
         <v>9162900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8838600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8251500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8908600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9497600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7241200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6360900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4524000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4863000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4550000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4834000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4674000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4507000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4543000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4400000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3733000</v>
       </c>
       <c r="L62" s="3">
         <v>3733000</v>
       </c>
       <c r="M62" s="3">
+        <v>3733000</v>
+      </c>
+      <c r="N62" s="3">
         <v>3546700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3845600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4104300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4229900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4071700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2946300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2973300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3385,8 +3534,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3438,8 +3590,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3491,61 +3646,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24041000</v>
+      </c>
+      <c r="E66" s="3">
         <v>24437000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25152000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25288000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34091000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28584000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25243000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28427000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>20279000</v>
       </c>
       <c r="L66" s="3">
         <v>20279000</v>
       </c>
       <c r="M66" s="3">
+        <v>20279000</v>
+      </c>
+      <c r="N66" s="3">
         <v>20505300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20143900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19433500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21220200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21308800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15094000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13897900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3565,8 +3726,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3618,8 +3780,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3671,8 +3836,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3704,10 +3872,10 @@
         <v>1000</v>
       </c>
       <c r="M70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N70" s="3">
         <v>1200</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1100</v>
       </c>
       <c r="O70" s="3">
         <v>1100</v>
@@ -3719,13 +3887,16 @@
         <v>1100</v>
       </c>
       <c r="R70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="S70" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3777,61 +3948,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21746000</v>
+      </c>
+      <c r="E72" s="3">
         <v>20215000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19463000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12009000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11501000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11761000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11929000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12083000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>9126000</v>
       </c>
       <c r="L72" s="3">
         <v>9126000</v>
       </c>
       <c r="M72" s="3">
+        <v>9126000</v>
+      </c>
+      <c r="N72" s="3">
         <v>9794500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7499600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7420300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6436900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6776800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6156600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6344400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3883,8 +4060,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3936,8 +4116,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3989,61 +4172,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20794000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20232000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19376000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19655000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18283000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19027000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17790000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18349000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>15476000</v>
       </c>
       <c r="L76" s="3">
         <v>15476000</v>
       </c>
       <c r="M76" s="3">
+        <v>15476000</v>
+      </c>
+      <c r="N76" s="3">
         <v>17332900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14851800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15255600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14109000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14601600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14697300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11944700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4095,119 +4284,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1780000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>785000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>719000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>403000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1123000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>593000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2885000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1461000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2485700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>402100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1364800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>313000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>760700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>54000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4227,61 +4425,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>861000</v>
+      </c>
+      <c r="E83" s="3">
         <v>917000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>848000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>868000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>826000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>-445000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>265000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>518000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>650700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>584800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1185800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>596900</v>
       </c>
       <c r="Q83" s="3">
         <v>596900</v>
       </c>
       <c r="R83" s="3">
+        <v>596900</v>
+      </c>
+      <c r="S83" s="3">
         <v>429600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>400300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4333,8 +4535,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4386,8 +4591,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4439,8 +4647,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4492,8 +4703,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4545,61 +4759,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>621000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2645000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1565000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2930000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1008000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1940000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-311000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2677100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-54300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2569300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>77400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2822900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-315800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1747800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4619,61 +4839,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-596000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-967000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-587000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-482000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-514000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>486000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-509000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-635200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-568200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-936600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-457800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-610400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-396700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-260600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4725,8 +4949,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4778,61 +5005,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2125000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2027000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-519000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-613000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-447000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>1026000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1093000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1321000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2039500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1085400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-807000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-445400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8485600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>301700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4852,61 +5085,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-732000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-177000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-729000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-170000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-537000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>96000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-52000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-358000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-116000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-412000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-386500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-260300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-161600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-275800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-135000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4958,8 +5195,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5011,8 +5251,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5064,163 +5307,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1470000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-937000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2368000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4992000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5279000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>-544000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-456000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1337000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-311000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>667900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1901700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-859400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2637800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2125800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>610400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-233000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-190000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-107000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>308000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>30000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>178000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-81300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-103000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>63700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-28000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>170200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-509000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1429000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2367000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5870000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1158000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>525000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-287000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>245200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-574800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-75800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1261100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3052900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2281900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2522500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>CRH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,260 +665,273 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17725000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14998000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16039000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13167000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15372000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12215000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15285000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8583000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12847000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27449000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11944000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11726300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13125100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27218300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14241400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16005200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10998600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12428300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11601000</v>
+      </c>
+      <c r="E9" s="3">
         <v>10243000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10483000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8867000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10060000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8365000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10130000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
         <v>8729000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18391000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8236000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7398500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8960500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18189500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9780400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10894500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7845700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8641600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6124000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4755000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5556000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4300000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5312000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3850000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5155000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>4118000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9058000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3708000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4327900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4164600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9028900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4461000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5110700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3152900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +952,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -995,8 +1009,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1051,50 +1068,53 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>12000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>5500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1127,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1163,8 +1186,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1182,120 +1208,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15216000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13613000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13733000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12142000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13873000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11451000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13288000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>12051000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25003000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11352000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10147400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12452700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25123300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13581700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14784500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10776700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11552600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2509000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1385000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2306000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1025000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1499000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>764000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1997000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>796000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2446000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>592000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1579000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>672300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2095000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>659700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1220700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>221900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>875700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1316,120 +1349,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-182000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-132000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-96000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-353000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-246000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-533000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>-79000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-478000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-95000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-131600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-146200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-316200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-203100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-132400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-147900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3162000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2064000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3091000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1777000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2014000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1344000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>272000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2233000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1015000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2098100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1110900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2964600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1053500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1685200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>503600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1221900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1484,120 +1524,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2266000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1203000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2174000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>929000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1146000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>518000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1464000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>717000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1968000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>497000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1447400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>526100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1778800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>456600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1088300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>74000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>520000</v>
+      </c>
+      <c r="E24" s="3">
         <v>265000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>460000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>201000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>387000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>112000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>375000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
         <v>159000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>467000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>119000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-140000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>142900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>473200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>127900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>323100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>190200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1652,120 +1701,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1746000</v>
+      </c>
+      <c r="E26" s="3">
         <v>938000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1714000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>728000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>759000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>406000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1089000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>558000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1501000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>378000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1587400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>383200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1305500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>328700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>765200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>55200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1731000</v>
+      </c>
+      <c r="E27" s="3">
         <v>926000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1688000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>698000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>719000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>403000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1076000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>551000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1497000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>378000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1570600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>373300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1275900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>313000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>760700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>54000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1820,53 +1878,56 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E29" s="3">
         <v>1168000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>92000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>87000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>47000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>42000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1388000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1083000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>915100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>28800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>88900</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1876,8 +1937,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1932,8 +1996,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1988,120 +2055,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E32" s="3">
         <v>182000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>132000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>96000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>353000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>246000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>533000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>79000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>478000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>95000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>131600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>146200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>316200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>203100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>132400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>147900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1753000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2094000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1780000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>785000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>719000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>403000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1123000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>593000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2885000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1461000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2485700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>402100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1364800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>313000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>760700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>54000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2156,125 +2232,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1753000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2094000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1780000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>785000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>719000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>403000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1123000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>593000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2885000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1461000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2485700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>402100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1364800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>313000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>760700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>54000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2295,8 +2380,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2317,64 +2403,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5936000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6826000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5783000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6292000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7721000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14661000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9918000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1592000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9191000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1848000</v>
       </c>
       <c r="M41" s="3">
         <v>1848000</v>
       </c>
       <c r="N41" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="O41" s="3">
         <v>2530000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2137700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2689000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1564100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2825200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6149600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3829000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2429,400 +2519,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4632000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5858000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4611000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5335000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4122000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4946000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4253000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6008000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4682000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>5091000</v>
       </c>
       <c r="M43" s="3">
         <v>5091000</v>
       </c>
       <c r="N43" s="3">
+        <v>5091000</v>
+      </c>
+      <c r="O43" s="3">
         <v>4539600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5396200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4373300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5548200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4467800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4211600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3121200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4194000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3792000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3611000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3193000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3117000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2940000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3080000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3673000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3505000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3151000</v>
       </c>
       <c r="M44" s="3">
         <v>3151000</v>
       </c>
       <c r="N44" s="3">
+        <v>3151000</v>
+      </c>
+      <c r="O44" s="3">
         <v>3247700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3450200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3227000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3362600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3223500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2978000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E45" s="3">
         <v>112000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>31000</v>
       </c>
       <c r="M45" s="3">
         <v>31000</v>
       </c>
       <c r="N45" s="3">
+        <v>31000</v>
+      </c>
+      <c r="O45" s="3">
         <v>1370800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>66500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>29200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>26900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>640900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14801000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16588000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14044000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14855000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14977000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22574000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17258000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11283000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17395000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>10121000</v>
       </c>
       <c r="M46" s="3">
         <v>10121000</v>
       </c>
       <c r="N46" s="3">
+        <v>10121000</v>
+      </c>
+      <c r="O46" s="3">
         <v>11688100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11050500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10314600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10504100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10543300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13365000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10243800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>827000</v>
+      </c>
+      <c r="E47" s="3">
         <v>879000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>904000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>875000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>964000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1049000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1144000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1575000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1565000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1299000</v>
       </c>
       <c r="M47" s="3">
         <v>1299000</v>
       </c>
       <c r="N47" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="O47" s="3">
         <v>1709400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1641500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1687600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1688600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1676300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1814700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1686800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18921000</v>
+      </c>
+      <c r="E48" s="3">
         <v>18298000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19502000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19100000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19317000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19099000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>39148000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>38153000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18046000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>15607000</v>
       </c>
       <c r="M48" s="3">
         <v>15607000</v>
       </c>
       <c r="N48" s="3">
+        <v>15607000</v>
+      </c>
+      <c r="O48" s="3">
         <v>15663000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13744200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13933600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14146000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14655400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9181500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8712000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10287000</v>
+      </c>
+      <c r="E49" s="3">
         <v>8726000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9848000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9468000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9373000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9378000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9475000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9702000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9656000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>8615000</v>
       </c>
       <c r="M49" s="3">
         <v>8615000</v>
       </c>
       <c r="N49" s="3">
+        <v>8615000</v>
+      </c>
+      <c r="O49" s="3">
         <v>8629400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8360200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8521600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8629200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8774000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5177700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4898300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2877,8 +2991,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2933,64 +3050,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E52" s="3">
         <v>345000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>372000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>231000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>313000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>275000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>161000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>166000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>115000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>114000</v>
       </c>
       <c r="M52" s="3">
         <v>114000</v>
       </c>
       <c r="N52" s="3">
+        <v>114000</v>
+      </c>
+      <c r="O52" s="3">
         <v>149500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>232800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>362400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>262500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>253500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>302800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3045,64 +3168,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45188000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44836000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44670000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44529000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44944000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>52375000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>47612000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43034000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46777000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>35756000</v>
       </c>
       <c r="M54" s="3">
         <v>35756000</v>
       </c>
       <c r="N54" s="3">
+        <v>35756000</v>
+      </c>
+      <c r="O54" s="3">
         <v>37839400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34996800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34690200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35330300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35911500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>29792500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25843800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3123,8 +3252,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3145,344 +3275,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5872000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6172000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5692000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6198000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4792000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5031000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4916000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5773000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5277000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>5155000</v>
       </c>
       <c r="M57" s="3">
         <v>5155000</v>
       </c>
       <c r="N57" s="3">
+        <v>5155000</v>
+      </c>
+      <c r="O57" s="3">
         <v>5423600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5538000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5286900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5880300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5341800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4145900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3397000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1751000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1610000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>846000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>452000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1553000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6185000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6920000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1571000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7213000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1356000</v>
       </c>
       <c r="M58" s="3">
         <v>1356000</v>
       </c>
       <c r="N58" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="O58" s="3">
         <v>378000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>463000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>302000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>720300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>848200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>412000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>524700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1266000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1497000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1043000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1262000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1120000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1125000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1030000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1005000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>976000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>984000</v>
       </c>
       <c r="M59" s="3">
         <v>984000</v>
       </c>
       <c r="N59" s="3">
+        <v>984000</v>
+      </c>
+      <c r="O59" s="3">
         <v>1412700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>898300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>887200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>880800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>955900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>322800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>617400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8889000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9279000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7581000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7912000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7465000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12341000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12866000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8349000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13466000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>7495000</v>
       </c>
       <c r="M60" s="3">
         <v>7495000</v>
       </c>
       <c r="N60" s="3">
+        <v>7495000</v>
+      </c>
+      <c r="O60" s="3">
         <v>7214300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6899200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6476000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7481400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7146000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4880700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4539100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9204000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9598000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11312000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11995000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12297000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16434000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10604000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11731000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9959000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>8557000</v>
       </c>
       <c r="M61" s="3">
         <v>8557000</v>
       </c>
       <c r="N61" s="3">
+        <v>8557000</v>
+      </c>
+      <c r="O61" s="3">
         <v>9162900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8838600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8251500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8908600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9497600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7241200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6360900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4758000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4524000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4863000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4550000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4834000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4674000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4507000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4543000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4400000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>3733000</v>
       </c>
       <c r="M62" s="3">
         <v>3733000</v>
       </c>
       <c r="N62" s="3">
+        <v>3733000</v>
+      </c>
+      <c r="O62" s="3">
         <v>3546700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3845600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4104300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4229900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4071700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2946300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2973300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3537,8 +3686,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3593,8 +3745,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3649,64 +3804,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23497000</v>
+      </c>
+      <c r="E66" s="3">
         <v>24041000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24437000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25152000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25288000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34091000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28584000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25243000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28427000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>20279000</v>
       </c>
       <c r="M66" s="3">
         <v>20279000</v>
       </c>
       <c r="N66" s="3">
+        <v>20279000</v>
+      </c>
+      <c r="O66" s="3">
         <v>20505300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20143900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19433500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21220200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21308800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15094000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13897900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3727,8 +3888,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3783,8 +3945,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3839,8 +4004,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3875,10 +4043,10 @@
         <v>1000</v>
       </c>
       <c r="N70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O70" s="3">
         <v>1200</v>
-      </c>
-      <c r="O70" s="3">
-        <v>1100</v>
       </c>
       <c r="P70" s="3">
         <v>1100</v>
@@ -3890,13 +4058,16 @@
         <v>1100</v>
       </c>
       <c r="S70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T70" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3951,64 +4122,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22372000</v>
+      </c>
+      <c r="E72" s="3">
         <v>21746000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20215000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19463000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12009000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11501000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11761000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11929000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12083000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>9126000</v>
       </c>
       <c r="M72" s="3">
         <v>9126000</v>
       </c>
       <c r="N72" s="3">
+        <v>9126000</v>
+      </c>
+      <c r="O72" s="3">
         <v>9794500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7499600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7420300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6436900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6776800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6156600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6344400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4063,8 +4240,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4119,8 +4299,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4175,64 +4358,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21690000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20794000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20232000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19376000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19655000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18283000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19027000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17790000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18349000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>15476000</v>
       </c>
       <c r="M76" s="3">
         <v>15476000</v>
       </c>
       <c r="N76" s="3">
+        <v>15476000</v>
+      </c>
+      <c r="O76" s="3">
         <v>17332900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14851800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15255600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14109000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14601600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14697300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11944700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4287,125 +4476,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1753000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2094000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1780000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>785000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>719000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>403000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1123000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>593000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2885000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1461000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2485700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>402100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1364800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>313000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>760700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>54000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4426,64 +4624,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E83" s="3">
         <v>861000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>917000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>848000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>868000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>826000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>-445000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>265000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>518000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>650700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>584800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1185800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>596900</v>
       </c>
       <c r="R83" s="3">
         <v>596900</v>
       </c>
       <c r="S83" s="3">
+        <v>596900</v>
+      </c>
+      <c r="T83" s="3">
         <v>429600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>400300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4538,8 +4740,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4594,8 +4799,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4650,8 +4858,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4706,8 +4917,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4762,64 +4976,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3333000</v>
+      </c>
+      <c r="E89" s="3">
         <v>621000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2645000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1565000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2930000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1008000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1940000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-311000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2677100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-54300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2569300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>77400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2822900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-315800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1747800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4840,64 +5060,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-927000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-596000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-967000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-587000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-482000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-514000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="J91" s="3">
+        <v>-656000</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>486000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-509000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-635200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-568200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-936600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-457800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-610400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-396700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-260600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4952,8 +5176,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5008,64 +5235,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3009000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2125000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2027000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-519000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-613000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-447000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>1026000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1093000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1321000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2039500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1085400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-807000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-445400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8485600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>301700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5086,64 +5319,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-732000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-177000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-729000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-170000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-537000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>96000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-52000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-358000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-116000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-412000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-386500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-260300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-161600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-275800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-135000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5198,8 +5435,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5254,8 +5494,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5310,172 +5553,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1216000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1470000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-937000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2368000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4992000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5279000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>-544000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-456000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1337000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-311000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>667900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1901700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-859400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2637800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2125800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>610400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-233000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-190000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-107000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>308000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>30000</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>-11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>178000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-81300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-103000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>63700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-33700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-28000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>170200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-890000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1043000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-509000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1429000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2367000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5870000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>-1158000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>525000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-287000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>245200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-574800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-75800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1261100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3052900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2281900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2522500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>CRH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,273 +665,286 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42369</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42185</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16136000</v>
+      </c>
+      <c r="E8" s="3">
         <v>17725000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14998000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16039000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13167000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15372000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12215000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15285000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8583000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12847000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27449000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11944000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11726300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13125100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27218300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14241400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16005200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10998600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12428300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10855000</v>
+      </c>
+      <c r="E9" s="3">
         <v>11601000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10243000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10483000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8867000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10060000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8365000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10130000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3">
         <v>8729000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18391000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8236000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7398500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8960500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18189500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9780400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10894500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7845700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8641600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5281000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6124000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4755000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5556000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4300000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5312000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3850000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5155000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
         <v>4118000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9058000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3708000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4327900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4164600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9028900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4461000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5110700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3152900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +966,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1026,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1071,8 +1088,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,42 +1102,42 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>5500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1130,8 +1150,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,8 +1212,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1209,126 +1235,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14509000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15216000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13613000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13733000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12142000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13873000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11451000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13288000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>12051000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25003000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11352000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10147400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12452700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25123300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13581700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14784500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10776700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11552600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1627000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2509000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1385000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2306000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1025000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1499000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>764000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1997000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>796000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2446000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>592000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1579000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>672300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2095000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>659700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1220700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>221900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>875700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1350,126 +1383,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-243000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-182000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-132000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-96000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-353000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-246000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-533000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>-79000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-478000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-95000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-131600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-146200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-316200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-203100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-132400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-147900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2403000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3162000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2064000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3091000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1777000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2014000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1344000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>272000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2233000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1015000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2098100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1110900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2964600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1053500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1685200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>503600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1221900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1527,126 +1567,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1510000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2266000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1203000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2174000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>929000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1146000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>518000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1464000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>717000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1968000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>497000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1447400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>526100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1778800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>456600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1088300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>74000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>332000</v>
+      </c>
+      <c r="E24" s="3">
         <v>520000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>265000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>460000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>201000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>387000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>112000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>375000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>159000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>467000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>119000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-140000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>142900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>473200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>127900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>323100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>190200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1704,126 +1753,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1178000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1746000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>938000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1714000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>728000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>759000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>406000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1089000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>558000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1501000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>378000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1587400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>383200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1305500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>328700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>765200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>55200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1168000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1731000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>926000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1688000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>698000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>719000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>403000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1076000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>551000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1497000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>378000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1570600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>373300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1275900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>313000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>760700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>54000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1881,56 +1939,59 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>22000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>1168000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>92000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>87000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>47000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>42000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1388000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1083000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>915100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>28800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>88900</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1940,8 +2001,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1999,8 +2063,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2058,126 +2125,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E32" s="3">
         <v>243000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>182000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>132000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>96000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>353000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>246000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>533000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>79000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>478000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>95000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>131600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>146200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>316200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>203100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>132400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>147900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1168000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1753000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2094000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1780000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>785000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>719000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>403000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1123000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>593000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2885000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1461000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2485700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>402100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1364800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>313000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>760700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>54000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2235,131 +2311,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1168000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1753000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2094000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1780000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>785000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>719000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>403000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1123000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>593000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2885000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1461000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2485700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>402100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1364800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>313000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>760700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>54000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42369</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42185</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2381,8 +2466,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2404,67 +2490,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4275000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5936000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6826000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5783000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6292000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7721000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14661000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9918000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1592000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9191000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1848000</v>
       </c>
       <c r="N41" s="3">
         <v>1848000</v>
       </c>
       <c r="O41" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="P41" s="3">
         <v>2530000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2137700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2689000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1564100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2825200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6149600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3829000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2522,421 +2612,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6450000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4632000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5858000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4611000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5335000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4122000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4946000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4253000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6008000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4682000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>5091000</v>
       </c>
       <c r="N43" s="3">
         <v>5091000</v>
       </c>
       <c r="O43" s="3">
+        <v>5091000</v>
+      </c>
+      <c r="P43" s="3">
         <v>4539600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5396200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4373300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5548200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4467800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4211600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3121200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4276000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4194000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3792000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3611000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3193000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3117000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2940000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3080000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3673000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3505000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3151000</v>
       </c>
       <c r="N44" s="3">
         <v>3151000</v>
       </c>
       <c r="O44" s="3">
+        <v>3151000</v>
+      </c>
+      <c r="P44" s="3">
         <v>3247700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3450200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3227000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3362600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3223500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2978000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E45" s="3">
         <v>39000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>112000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>35000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>31000</v>
       </c>
       <c r="N45" s="3">
         <v>31000</v>
       </c>
       <c r="O45" s="3">
+        <v>31000</v>
+      </c>
+      <c r="P45" s="3">
         <v>1370800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>66500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>26900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>640900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15009000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14801000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16588000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14044000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14855000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14977000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22574000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17258000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11283000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17395000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>10121000</v>
       </c>
       <c r="N46" s="3">
         <v>10121000</v>
       </c>
       <c r="O46" s="3">
+        <v>10121000</v>
+      </c>
+      <c r="P46" s="3">
         <v>11688100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11050500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10314600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10504100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10543300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13365000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10243800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>885000</v>
+      </c>
+      <c r="E47" s="3">
         <v>827000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>879000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>904000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>875000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>964000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1049000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1144000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1575000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1565000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1299000</v>
       </c>
       <c r="N47" s="3">
         <v>1299000</v>
       </c>
       <c r="O47" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="P47" s="3">
         <v>1709400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1641500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1687600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1688600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1676300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1814700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1686800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19322000</v>
+      </c>
+      <c r="E48" s="3">
         <v>18921000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18298000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19502000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19100000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19317000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19099000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>39148000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38153000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18046000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>15607000</v>
       </c>
       <c r="N48" s="3">
         <v>15607000</v>
       </c>
       <c r="O48" s="3">
+        <v>15607000</v>
+      </c>
+      <c r="P48" s="3">
         <v>15663000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13744200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13933600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14146000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14655400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9181500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8712000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10399000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10287000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8726000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9848000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9468000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9373000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9378000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9475000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9702000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9656000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>8615000</v>
       </c>
       <c r="N49" s="3">
         <v>8615000</v>
       </c>
       <c r="O49" s="3">
+        <v>8615000</v>
+      </c>
+      <c r="P49" s="3">
         <v>8629400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8360200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8521600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8629200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8774000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5177700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4898300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2994,8 +3108,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3053,67 +3170,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E52" s="3">
         <v>352000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>345000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>372000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>231000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>313000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>275000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>161000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>166000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>115000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>114000</v>
       </c>
       <c r="N52" s="3">
         <v>114000</v>
       </c>
       <c r="O52" s="3">
+        <v>114000</v>
+      </c>
+      <c r="P52" s="3">
         <v>149500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>232800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>362400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>262500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>253500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>302800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3171,67 +3294,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45983000</v>
+      </c>
+      <c r="E54" s="3">
         <v>45188000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44836000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44670000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44529000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44944000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>52375000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>47612000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43034000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46777000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>35756000</v>
       </c>
       <c r="N54" s="3">
         <v>35756000</v>
       </c>
       <c r="O54" s="3">
+        <v>35756000</v>
+      </c>
+      <c r="P54" s="3">
         <v>37839400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34996800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34690200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35330300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35911500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>29792500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25843800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3253,8 +3382,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3276,362 +3406,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7448000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5872000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6172000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5692000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6198000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4792000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5031000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4916000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5773000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5277000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>5155000</v>
       </c>
       <c r="N57" s="3">
         <v>5155000</v>
       </c>
       <c r="O57" s="3">
+        <v>5155000</v>
+      </c>
+      <c r="P57" s="3">
         <v>5423600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5538000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5286900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5880300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5341800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4145900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3397000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2451000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1751000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1610000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>846000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>452000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1553000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6185000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6920000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1571000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7213000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1356000</v>
       </c>
       <c r="N58" s="3">
         <v>1356000</v>
       </c>
       <c r="O58" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="P58" s="3">
         <v>378000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>463000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>302000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>720300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>848200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>412000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>524700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1328000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1266000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1497000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1043000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1262000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1120000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1125000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1030000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1005000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>976000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>984000</v>
       </c>
       <c r="N59" s="3">
         <v>984000</v>
       </c>
       <c r="O59" s="3">
+        <v>984000</v>
+      </c>
+      <c r="P59" s="3">
         <v>1412700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>898300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>887200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>880800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>955900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>322800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>617400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11227000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8889000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9279000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7581000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7912000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7465000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12341000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12866000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8349000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13466000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>7495000</v>
       </c>
       <c r="N60" s="3">
         <v>7495000</v>
       </c>
       <c r="O60" s="3">
+        <v>7495000</v>
+      </c>
+      <c r="P60" s="3">
         <v>7214300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6899200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6476000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7481400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7146000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4880700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4539100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8644000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9204000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9598000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11312000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11995000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12297000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16434000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10604000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11731000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9959000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>8557000</v>
       </c>
       <c r="N61" s="3">
         <v>8557000</v>
       </c>
       <c r="O61" s="3">
+        <v>8557000</v>
+      </c>
+      <c r="P61" s="3">
         <v>9162900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8838600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8251500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8908600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9497600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7241200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6360900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4766000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4758000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4524000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4863000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4550000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4834000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4674000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4507000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4543000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4400000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>3733000</v>
       </c>
       <c r="N62" s="3">
         <v>3733000</v>
       </c>
       <c r="O62" s="3">
+        <v>3733000</v>
+      </c>
+      <c r="P62" s="3">
         <v>3546700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3845600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4104300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4229900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4071700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2946300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2973300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3689,8 +3838,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3748,8 +3900,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3807,67 +3962,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25288000</v>
+      </c>
+      <c r="E66" s="3">
         <v>23497000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24041000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24437000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25152000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25288000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34091000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28584000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25243000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28427000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>20279000</v>
       </c>
       <c r="N66" s="3">
         <v>20279000</v>
       </c>
       <c r="O66" s="3">
+        <v>20279000</v>
+      </c>
+      <c r="P66" s="3">
         <v>20505300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20143900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19433500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21220200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21308800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15094000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13897900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3889,8 +4050,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3948,8 +4110,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4007,8 +4172,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4046,10 +4214,10 @@
         <v>1000</v>
       </c>
       <c r="O70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P70" s="3">
         <v>1200</v>
-      </c>
-      <c r="P70" s="3">
-        <v>1100</v>
       </c>
       <c r="Q70" s="3">
         <v>1100</v>
@@ -4061,13 +4229,16 @@
         <v>1100</v>
       </c>
       <c r="T70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="U70" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4125,67 +4296,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22041000</v>
+      </c>
+      <c r="E72" s="3">
         <v>22372000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>21746000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20215000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19463000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12009000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11501000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11761000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11929000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12083000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>9126000</v>
       </c>
       <c r="N72" s="3">
         <v>9126000</v>
       </c>
       <c r="O72" s="3">
+        <v>9126000</v>
+      </c>
+      <c r="P72" s="3">
         <v>9794500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7499600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7420300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6436900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6776800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6156600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6344400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4243,8 +4420,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4302,8 +4482,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4361,67 +4544,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20694000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21690000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20794000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20232000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19376000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19655000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18283000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19027000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17790000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18349000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>15476000</v>
       </c>
       <c r="N76" s="3">
         <v>15476000</v>
       </c>
       <c r="O76" s="3">
+        <v>15476000</v>
+      </c>
+      <c r="P76" s="3">
         <v>17332900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14851800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15255600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14109000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14601600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14697300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11944700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4479,131 +4668,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42369</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42185</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1168000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1753000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2094000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1780000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>785000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>719000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>403000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1123000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>593000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2885000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1461000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2485700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>402100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1364800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>313000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>760700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>54000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4625,67 +4823,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>893000</v>
+      </c>
+      <c r="E83" s="3">
         <v>896000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>861000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>917000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>848000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>868000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>826000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>-445000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>265000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>518000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>650700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>584800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1185800</v>
-      </c>
-      <c r="R83" s="3">
-        <v>596900</v>
       </c>
       <c r="S83" s="3">
         <v>596900</v>
       </c>
       <c r="T83" s="3">
+        <v>596900</v>
+      </c>
+      <c r="U83" s="3">
         <v>429600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>400300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4743,8 +4945,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4802,8 +5007,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4861,8 +5069,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4920,8 +5131,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4979,67 +5193,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>998000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3333000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>621000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2645000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1565000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2930000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1008000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1940000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>57000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-311000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2677100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-54300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2569300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>77400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2822900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-315800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1747800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5061,67 +5281,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-771000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-927000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-596000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-967000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-587000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-482000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-514000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-656000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>486000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-77000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-509000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-635200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-568200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-936600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-457800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-610400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-396700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-260600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5179,8 +5403,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5238,67 +5465,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-906000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3009000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2125000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2027000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-519000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-613000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-447000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>1026000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1093000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1321000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2039500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1085400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-807000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-445400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8485600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>301700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5320,67 +5553,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-761000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-185000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-732000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-177000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-729000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-170000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-537000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>96000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-52000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-358000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-116000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-412000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-386500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-260300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-161600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-275800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-135000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5438,8 +5675,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5497,8 +5737,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5556,181 +5799,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1845000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1216000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1470000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-937000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2368000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4992000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5279000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-544000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-456000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1337000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-311000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>667900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1901700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-859400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2637800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2125800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>610400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-233000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-190000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-107000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>308000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>30000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>178000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-81300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>63700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-33700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-28000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>170200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1661000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-890000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1043000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-509000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1429000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2367000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5870000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>-1158000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>525000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-287000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>245200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-574800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-75800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1261100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3052900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2281900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2522500</v>
       </c>
     </row>
